--- a/Documents/Emids HEDIS Doucments/HEDIS Metadata EOC.xlsx
+++ b/Documents/Emids HEDIS Doucments/HEDIS Metadata EOC.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7620" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7620" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="ABA" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,9 @@
     <sheet name="CCS" sheetId="9" r:id="rId8"/>
     <sheet name="COL" sheetId="10" r:id="rId9"/>
     <sheet name="CWP" sheetId="11" r:id="rId10"/>
-    <sheet name="Data Type" sheetId="2" r:id="rId11"/>
+    <sheet name="SPR" sheetId="12" r:id="rId11"/>
+    <sheet name="PCE" sheetId="13" r:id="rId12"/>
+    <sheet name="Data Type" sheetId="2" r:id="rId13"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1940" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2633" uniqueCount="564">
   <si>
     <t>Age</t>
   </si>
@@ -2113,6 +2115,162 @@
   </si>
   <si>
     <t xml:space="preserve">As below </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commercial, Medicaid, Medicare </t>
+  </si>
+  <si>
+    <t>42 years or older as of December 31 of the measurement year</t>
+  </si>
+  <si>
+    <t>730 days (2 years) prior to the IESD through 180 days (6 months) after the IESD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Maximum of two gaps allowed. One gap in enrollment of up to 45 days is allowed in each of the 12-month periods prior to the IESD or one gap in the 6-month period after the IESD.
+For Medicaid only one gap of 30 days allowed.</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.3.464.1004.1053</t>
+  </si>
+  <si>
+    <t>COPD</t>
+  </si>
+  <si>
+    <t>J44.0, J44.1, J44.9</t>
+  </si>
+  <si>
+    <t>493.20 - 493.22, 496</t>
+  </si>
+  <si>
+    <t>Emphysema</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.3.464.1004.1091</t>
+  </si>
+  <si>
+    <t>J43.0, J43.1, J43.2, J43.8, J43.9</t>
+  </si>
+  <si>
+    <t>492.0, 492.8</t>
+  </si>
+  <si>
+    <t>Chronic Bronchitis</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.3.464.1004.1061</t>
+  </si>
+  <si>
+    <t>J41.0, J41.1, J41.8, J42</t>
+  </si>
+  <si>
+    <t>491.0, 491.1, 491.20, 491.21, 491.22, 491.8, 491.9</t>
+  </si>
+  <si>
+    <t>Do not include ED visits that result in an inpatient admission</t>
+  </si>
+  <si>
+    <t>To identify acute inpatient discharges</t>
+  </si>
+  <si>
+    <t>Inpatient Stay</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.3.464.1004.1395</t>
+  </si>
+  <si>
+    <t>Nonacute Inpatient Stay</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.3.464.1004.1398</t>
+  </si>
+  <si>
+    <t>Run below filter on acute inpatient discharge data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Identify all acute and nonacute inpatient stays.
+2.Exclude nonacute inpatient stays. 
+3.Identify the discharge date for the stay
+If the member had more than one eligible visit, include only the first visit. </t>
+  </si>
+  <si>
+    <t>Test for Negative Diagnosis History. Exclude members who had any of the following during the 731-day period prior to the IESD</t>
+  </si>
+  <si>
+    <t>Identify all members who had any of the following during the Intake Period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Identify all acute and nonacute inpatient stays.
+2.Exclude nonacute inpatient stays. 
+3.Identify the discharge date for the stay
+For an acute inpatient IESD, use the IESD date of admission to determine the 731-day period.  </t>
+  </si>
+  <si>
+    <t>Members must be continuously enrolled in the organization 730 days (2 years) prior to the IESD through 180 days (6 months) after the IESD</t>
+  </si>
+  <si>
+    <t>Spirometry</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.3.464.1004.1239</t>
+  </si>
+  <si>
+    <t>94010, 94014, 94015, 94016, 94060, 94070, 94075, 94620</t>
+  </si>
+  <si>
+    <t>one claim/encounter for spirometry during the 730 days (2 years) prior to the IESD through 180 days (6 months) after the IESD</t>
+  </si>
+  <si>
+    <t>40 years or older as of January 1 of the measurement year</t>
+  </si>
+  <si>
+    <t>Episode Date through 30 days after the Episode Date</t>
+  </si>
+  <si>
+    <t>FASLE</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>Identify all COPD Episode Dates. For each member identified in step 1, identify all acute inpatient discharges and ED visits</t>
+  </si>
+  <si>
+    <t>Exclude Episode Dates when the member was transferred directly to an acute or nonacute inpatient care setting for any diagnosis. Organizations must identify “transfers” using their own methods and then confirm the acute or nonacute inpatient care setting using codes in the Inpatient Stay Value Set</t>
+  </si>
+  <si>
+    <t>STEP 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test for readmission and additional ED visits. 
+Exclude Episode Dates when the member was readmitted to an acute or nonacute inpatient care setting for any diagnosis within 14 days after the Episode Date. To identify readmissions to an acute or nonacute inpatient care setting:
+1. Identify all acute and nonacute inpatient stays 
+2. Identify the admission date for the stay.
+Exclude Episode Dates when the member had an ED visit for any diagnosis within 14 days after the Episode Date. 
+</t>
+  </si>
+  <si>
+    <t>Exclude Episode Dates when the member had an ED visit (ED Value Set) for any diagnosis within 14 days after the Episode Date</t>
+  </si>
+  <si>
+    <t>STEP 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculate continuous enrollment. The member must be continuously enrolled without a gap in coverage from the Episode Date through 30 days after the Episode Date. 
+Note: All Episode Dates that were not excluded remain in the denominator. The denominator for this measure is based on acute inpatient discharges and ED visits, not members.
+</t>
+  </si>
+  <si>
+    <t>Systemic corticosteroid</t>
+  </si>
+  <si>
+    <t>Dispensed prescription for systemic corticosteroid (Table PCE-C) on or 14 days after the Episode Date. Count systemic corticosteroids that are active on the relevant date</t>
+  </si>
+  <si>
+    <t>Bronchodilator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dispensed prescription for a bronchodilator (Table PCE-D) on or 30 days after the Episode Date. Count bronchodilators that are active on the relevant date.
+Note: NCQA will post a comprehensive list of medications and NDC codes to www.ncqa.org by November 2, 2015. </t>
   </si>
 </sst>
 </file>
@@ -2541,7 +2699,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2859,18 +3017,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2879,6 +3025,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2889,6 +3038,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2896,6 +3054,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2913,15 +3080,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2934,14 +3092,76 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2958,6 +3178,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4001369</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>95396</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="16954500"/>
+          <a:ext cx="6230219" cy="1047896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4010896</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>9872</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="18669000"/>
+          <a:ext cx="6239746" cy="2486372"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3225,8 +3538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:G6"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3812,8 +4125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4111,10 +4424,10 @@
       <c r="H15" s="117"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="109" t="s">
+      <c r="A16" s="110" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="109"/>
+      <c r="B16" s="110"/>
       <c r="C16" s="31" t="s">
         <v>23</v>
       </c>
@@ -4151,10 +4464,10 @@
       <c r="H17" s="117"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="120" t="s">
+      <c r="A18" s="123" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="121"/>
+      <c r="B18" s="124"/>
       <c r="C18" s="31"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
@@ -4211,10 +4524,10 @@
       <c r="H20" s="117"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="114" t="s">
+      <c r="A21" s="111" t="s">
         <v>263</v>
       </c>
-      <c r="B21" s="115"/>
+      <c r="B21" s="112"/>
       <c r="C21" s="31"/>
       <c r="D21" s="24"/>
       <c r="E21" s="24"/>
@@ -4271,10 +4584,10 @@
       <c r="H23" s="117"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="109" t="s">
+      <c r="A24" s="110" t="s">
         <v>425</v>
       </c>
-      <c r="B24" s="109"/>
+      <c r="B24" s="110"/>
       <c r="C24" s="31"/>
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
@@ -4357,10 +4670,10 @@
       <c r="H27" s="117"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="120" t="s">
+      <c r="A28" s="123" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="121"/>
+      <c r="B28" s="124"/>
       <c r="C28" s="31"/>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
@@ -4417,10 +4730,10 @@
       <c r="H30" s="117"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="109" t="s">
+      <c r="A31" s="110" t="s">
         <v>263</v>
       </c>
-      <c r="B31" s="109"/>
+      <c r="B31" s="110"/>
       <c r="C31" s="31"/>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
@@ -4477,10 +4790,10 @@
       <c r="H33" s="117"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="114" t="s">
+      <c r="A34" s="111" t="s">
         <v>429</v>
       </c>
-      <c r="B34" s="115"/>
+      <c r="B34" s="112"/>
       <c r="C34" s="31"/>
       <c r="D34" s="24"/>
       <c r="E34" s="24"/>
@@ -4509,10 +4822,10 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="114" t="s">
+      <c r="A36" s="111" t="s">
         <v>486</v>
       </c>
-      <c r="B36" s="115"/>
+      <c r="B36" s="112"/>
       <c r="C36" s="31"/>
       <c r="D36" s="24"/>
       <c r="E36" s="24"/>
@@ -4539,10 +4852,10 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="109" t="s">
+      <c r="A38" s="110" t="s">
         <v>490</v>
       </c>
-      <c r="B38" s="109"/>
+      <c r="B38" s="110"/>
       <c r="C38" s="31"/>
       <c r="D38" s="24"/>
       <c r="E38" s="24"/>
@@ -4569,10 +4882,10 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="114" t="s">
+      <c r="A40" s="111" t="s">
         <v>493</v>
       </c>
-      <c r="B40" s="115"/>
+      <c r="B40" s="112"/>
       <c r="C40" s="31"/>
       <c r="D40" s="24"/>
       <c r="E40" s="24"/>
@@ -4609,16 +4922,16 @@
       <c r="H42" s="4"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="134" t="s">
+      <c r="A43" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="B43" s="134"/>
-      <c r="C43" s="134"/>
-      <c r="D43" s="134"/>
-      <c r="E43" s="134"/>
-      <c r="F43" s="134"/>
-      <c r="G43" s="134"/>
-      <c r="H43" s="134"/>
+      <c r="B43" s="132"/>
+      <c r="C43" s="132"/>
+      <c r="D43" s="132"/>
+      <c r="E43" s="132"/>
+      <c r="F43" s="132"/>
+      <c r="G43" s="132"/>
+      <c r="H43" s="132"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="78" t="s">
@@ -4759,10 +5072,10 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="133" t="s">
+      <c r="A58" s="134" t="s">
         <v>432</v>
       </c>
-      <c r="B58" s="133"/>
+      <c r="B58" s="134"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="96" t="s">
@@ -4773,7 +5086,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="132" t="s">
+      <c r="A60" s="133" t="s">
         <v>435</v>
       </c>
       <c r="B60" s="98" t="s">
@@ -4781,7 +5094,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="132"/>
+      <c r="A61" s="133"/>
       <c r="B61" s="98" t="s">
         <v>437</v>
       </c>
@@ -4795,7 +5108,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="132" t="s">
+      <c r="A63" s="133" t="s">
         <v>440</v>
       </c>
       <c r="B63" s="98" t="s">
@@ -4803,13 +5116,13 @@
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="132"/>
+      <c r="A64" s="133"/>
       <c r="B64" s="98" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="132"/>
+      <c r="A65" s="133"/>
       <c r="B65" s="100" t="s">
         <v>443</v>
       </c>
@@ -4831,7 +5144,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="132" t="s">
+      <c r="A68" s="133" t="s">
         <v>448</v>
       </c>
       <c r="B68" s="98" t="s">
@@ -4839,31 +5152,31 @@
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="132"/>
+      <c r="A69" s="133"/>
       <c r="B69" s="98" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="132"/>
+      <c r="A70" s="133"/>
       <c r="B70" s="98" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="132"/>
+      <c r="A71" s="133"/>
       <c r="B71" s="98" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="132"/>
+      <c r="A72" s="133"/>
       <c r="B72" s="98" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="132"/>
+      <c r="A73" s="133"/>
       <c r="B73" s="98" t="s">
         <v>454</v>
       </c>
@@ -4877,7 +5190,7 @@
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="132" t="s">
+      <c r="A75" s="133" t="s">
         <v>457</v>
       </c>
       <c r="B75" s="98" t="s">
@@ -4885,13 +5198,13 @@
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="132"/>
+      <c r="A76" s="133"/>
       <c r="B76" s="98" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="132"/>
+      <c r="A77" s="133"/>
       <c r="B77" s="100" t="s">
         <v>460</v>
       </c>
@@ -4905,7 +5218,7 @@
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="132" t="s">
+      <c r="A79" s="133" t="s">
         <v>463</v>
       </c>
       <c r="B79" s="98" t="s">
@@ -4913,25 +5226,25 @@
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="132"/>
+      <c r="A80" s="133"/>
       <c r="B80" s="98" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="132"/>
+      <c r="A81" s="133"/>
       <c r="B81" s="98" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="132"/>
+      <c r="A82" s="133"/>
       <c r="B82" s="98" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="132" t="s">
+      <c r="A83" s="133" t="s">
         <v>468</v>
       </c>
       <c r="B83" s="98" t="s">
@@ -4939,7 +5252,7 @@
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="132"/>
+      <c r="A84" s="133"/>
       <c r="B84" s="98" t="s">
         <v>470</v>
       </c>
@@ -4959,7 +5272,7 @@
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="132" t="s">
+      <c r="A87" s="133" t="s">
         <v>474</v>
       </c>
       <c r="B87" s="98" t="s">
@@ -4967,19 +5280,19 @@
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="132"/>
+      <c r="A88" s="133"/>
       <c r="B88" s="98" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="132"/>
+      <c r="A89" s="133"/>
       <c r="B89" s="100" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="132" t="s">
+      <c r="A90" s="133" t="s">
         <v>478</v>
       </c>
       <c r="B90" s="98" t="s">
@@ -4987,37 +5300,49 @@
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="132"/>
+      <c r="A91" s="133"/>
       <c r="B91" s="98" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="132"/>
+      <c r="A92" s="133"/>
       <c r="B92" s="98" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="132"/>
+      <c r="A93" s="133"/>
       <c r="B93" s="98" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="132"/>
+      <c r="A94" s="133"/>
       <c r="B94" s="98" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="132"/>
+      <c r="A95" s="133"/>
       <c r="B95" s="98" t="s">
         <v>484</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="A90:A95"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A68:A73"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="A48:B48"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A16:B16"/>
@@ -5031,18 +5356,6 @@
     <mergeCell ref="H13:H23"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A87:A89"/>
-    <mergeCell ref="A90:A95"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A68:A73"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="A48:B48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -5068,6 +5381,3527 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H176"/>
+  <sheetViews>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:XFD48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.42578125" style="135" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.28515625" style="135" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="135" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="135" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="135" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="135" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.28515625" style="135" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="54" style="135" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="135"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="105" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="136" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="136" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="136" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="136" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="136" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="136" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="137" t="s">
+        <v>519</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="138"/>
+    </row>
+    <row r="7" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="17"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="137" t="s">
+        <v>494</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="17"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="139" t="s">
+        <v>355</v>
+      </c>
+      <c r="B10" s="139"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="140" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="140" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="140" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="17"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="141" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="141"/>
+      <c r="C14" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>418</v>
+      </c>
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="142" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="142"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="H17" s="147" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="H18" s="147"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="141" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="141"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="147"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="140" t="s">
+        <v>522</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="140" t="s">
+        <v>522</v>
+      </c>
+      <c r="G20" s="140" t="s">
+        <v>521</v>
+      </c>
+      <c r="H20" s="147"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="140" t="s">
+        <v>522</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="140" t="s">
+        <v>522</v>
+      </c>
+      <c r="G21" s="140" t="s">
+        <v>521</v>
+      </c>
+      <c r="H21" s="147"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="141" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="141"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="147"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="H23" s="147"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="H24" s="147"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="143" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="147"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="144" t="s">
+        <v>525</v>
+      </c>
+      <c r="B26" s="144" t="s">
+        <v>527</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" s="140" t="s">
+        <v>525</v>
+      </c>
+      <c r="G26" s="140" t="s">
+        <v>526</v>
+      </c>
+      <c r="H26" s="147"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="144" t="s">
+        <v>525</v>
+      </c>
+      <c r="B27" s="144" t="s">
+        <v>528</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="140" t="s">
+        <v>525</v>
+      </c>
+      <c r="G27" s="140" t="s">
+        <v>526</v>
+      </c>
+      <c r="H27" s="147"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="141" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="141"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="147"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="H29" s="147"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="H30" s="147"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="145" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="H31" s="147"/>
+    </row>
+    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="140" t="s">
+        <v>529</v>
+      </c>
+      <c r="B32" s="135" t="s">
+        <v>531</v>
+      </c>
+      <c r="C32" s="146" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" s="140" t="s">
+        <v>529</v>
+      </c>
+      <c r="G32" s="140" t="s">
+        <v>530</v>
+      </c>
+      <c r="H32" s="147"/>
+    </row>
+    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="140" t="s">
+        <v>529</v>
+      </c>
+      <c r="B33" s="135" t="s">
+        <v>532</v>
+      </c>
+      <c r="C33" s="146" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" s="140" t="s">
+        <v>529</v>
+      </c>
+      <c r="G33" s="140" t="s">
+        <v>530</v>
+      </c>
+      <c r="H33" s="147"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="148" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" s="148"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="139" t="s">
+        <v>534</v>
+      </c>
+      <c r="B36" s="139"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="140" t="s">
+        <v>535</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="146" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F37" s="140" t="s">
+        <v>535</v>
+      </c>
+      <c r="G37" s="140" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="140" t="s">
+        <v>537</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="135" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" s="140" t="s">
+        <v>537</v>
+      </c>
+      <c r="G38" s="140" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="140" t="s">
+        <v>537</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="135" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F39" s="140" t="s">
+        <v>537</v>
+      </c>
+      <c r="G39" s="140" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="155"/>
+      <c r="B40" s="155" t="s">
+        <v>539</v>
+      </c>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="140" t="s">
+        <v>522</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F41" s="140" t="s">
+        <v>522</v>
+      </c>
+      <c r="G41" s="140" t="s">
+        <v>521</v>
+      </c>
+      <c r="H41" s="153" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="140" t="s">
+        <v>522</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F42" s="140" t="s">
+        <v>522</v>
+      </c>
+      <c r="G42" s="140" t="s">
+        <v>521</v>
+      </c>
+      <c r="H42" s="154"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="149" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="H43" s="154"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="144" t="s">
+        <v>525</v>
+      </c>
+      <c r="B44" s="144" t="s">
+        <v>527</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F44" s="140" t="s">
+        <v>525</v>
+      </c>
+      <c r="G44" s="140" t="s">
+        <v>526</v>
+      </c>
+      <c r="H44" s="154"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="144" t="s">
+        <v>525</v>
+      </c>
+      <c r="B45" s="144" t="s">
+        <v>528</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F45" s="140" t="s">
+        <v>525</v>
+      </c>
+      <c r="G45" s="140" t="s">
+        <v>526</v>
+      </c>
+      <c r="H45" s="154"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="150" t="s">
+        <v>91</v>
+      </c>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="H46" s="154"/>
+    </row>
+    <row r="47" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="140" t="s">
+        <v>529</v>
+      </c>
+      <c r="B47" s="135" t="s">
+        <v>531</v>
+      </c>
+      <c r="C47" s="146" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F47" s="140" t="s">
+        <v>529</v>
+      </c>
+      <c r="G47" s="140" t="s">
+        <v>530</v>
+      </c>
+      <c r="H47" s="154"/>
+    </row>
+    <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="140" t="s">
+        <v>529</v>
+      </c>
+      <c r="B48" s="135" t="s">
+        <v>532</v>
+      </c>
+      <c r="C48" s="146" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F48" s="140" t="s">
+        <v>529</v>
+      </c>
+      <c r="G48" s="140" t="s">
+        <v>530</v>
+      </c>
+      <c r="H48" s="154"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+    </row>
+    <row r="51" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="139" t="s">
+        <v>425</v>
+      </c>
+      <c r="B51" s="139"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="15" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="140" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F52" s="140" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="140" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" s="17"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" s="17"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" s="17"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="141" t="s">
+        <v>94</v>
+      </c>
+      <c r="B55" s="141"/>
+      <c r="C55" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" s="13"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F56" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="G56" s="17" t="s">
+        <v>418</v>
+      </c>
+      <c r="H56" s="17"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="142" t="s">
+        <v>91</v>
+      </c>
+      <c r="B57" s="142"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F58" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="G58" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="H58" s="147" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F59" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="G59" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="H59" s="147"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="141" t="s">
+        <v>94</v>
+      </c>
+      <c r="B60" s="141"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="147"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="140" t="s">
+        <v>522</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F61" s="140" t="s">
+        <v>522</v>
+      </c>
+      <c r="G61" s="140" t="s">
+        <v>521</v>
+      </c>
+      <c r="H61" s="147"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="140" t="s">
+        <v>522</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F62" s="140" t="s">
+        <v>522</v>
+      </c>
+      <c r="G62" s="140" t="s">
+        <v>521</v>
+      </c>
+      <c r="H62" s="147"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="141" t="s">
+        <v>91</v>
+      </c>
+      <c r="B63" s="141"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="147"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F64" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="G64" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="H64" s="147"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F65" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="G65" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="H65" s="147"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="143" t="s">
+        <v>94</v>
+      </c>
+      <c r="B66" s="12"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="147"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="144" t="s">
+        <v>525</v>
+      </c>
+      <c r="B67" s="144" t="s">
+        <v>527</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F67" s="140" t="s">
+        <v>525</v>
+      </c>
+      <c r="G67" s="140" t="s">
+        <v>526</v>
+      </c>
+      <c r="H67" s="147"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="144" t="s">
+        <v>525</v>
+      </c>
+      <c r="B68" s="144" t="s">
+        <v>528</v>
+      </c>
+      <c r="C68" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F68" s="140" t="s">
+        <v>525</v>
+      </c>
+      <c r="G68" s="140" t="s">
+        <v>526</v>
+      </c>
+      <c r="H68" s="147"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="141" t="s">
+        <v>91</v>
+      </c>
+      <c r="B69" s="141"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="147"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F70" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="G70" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="H70" s="147"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F71" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="G71" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="H71" s="147"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="145" t="s">
+        <v>94</v>
+      </c>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="H72" s="147"/>
+    </row>
+    <row r="73" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="140" t="s">
+        <v>529</v>
+      </c>
+      <c r="B73" s="135" t="s">
+        <v>531</v>
+      </c>
+      <c r="C73" s="146" t="s">
+        <v>23</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F73" s="140" t="s">
+        <v>529</v>
+      </c>
+      <c r="G73" s="140" t="s">
+        <v>530</v>
+      </c>
+      <c r="H73" s="147"/>
+    </row>
+    <row r="74" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="140" t="s">
+        <v>529</v>
+      </c>
+      <c r="B74" s="135" t="s">
+        <v>532</v>
+      </c>
+      <c r="C74" s="146" t="s">
+        <v>23</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F74" s="140" t="s">
+        <v>529</v>
+      </c>
+      <c r="G74" s="140" t="s">
+        <v>530</v>
+      </c>
+      <c r="H74" s="147"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="148" t="s">
+        <v>91</v>
+      </c>
+      <c r="B76" s="148"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="139" t="s">
+        <v>534</v>
+      </c>
+      <c r="B77" s="139"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="140" t="s">
+        <v>535</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C78" s="146" t="s">
+        <v>23</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F78" s="140" t="s">
+        <v>535</v>
+      </c>
+      <c r="G78" s="140" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="140" t="s">
+        <v>537</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C79" s="135" t="s">
+        <v>23</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F79" s="140" t="s">
+        <v>537</v>
+      </c>
+      <c r="G79" s="140" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="140" t="s">
+        <v>537</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C80" s="135" t="s">
+        <v>23</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E80" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F80" s="140" t="s">
+        <v>537</v>
+      </c>
+      <c r="G80" s="140" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="155"/>
+      <c r="B81" s="155" t="s">
+        <v>539</v>
+      </c>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="140" t="s">
+        <v>522</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="C82" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D82" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F82" s="140" t="s">
+        <v>522</v>
+      </c>
+      <c r="G82" s="140" t="s">
+        <v>521</v>
+      </c>
+      <c r="H82" s="153" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="140" t="s">
+        <v>522</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D83" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F83" s="140" t="s">
+        <v>522</v>
+      </c>
+      <c r="G83" s="140" t="s">
+        <v>521</v>
+      </c>
+      <c r="H83" s="154"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="149" t="s">
+        <v>91</v>
+      </c>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="H84" s="154"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="144" t="s">
+        <v>525</v>
+      </c>
+      <c r="B85" s="144" t="s">
+        <v>527</v>
+      </c>
+      <c r="C85" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F85" s="140" t="s">
+        <v>525</v>
+      </c>
+      <c r="G85" s="140" t="s">
+        <v>526</v>
+      </c>
+      <c r="H85" s="154"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="144" t="s">
+        <v>525</v>
+      </c>
+      <c r="B86" s="144" t="s">
+        <v>528</v>
+      </c>
+      <c r="C86" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D86" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F86" s="140" t="s">
+        <v>525</v>
+      </c>
+      <c r="G86" s="140" t="s">
+        <v>526</v>
+      </c>
+      <c r="H86" s="154"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="150" t="s">
+        <v>91</v>
+      </c>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="H87" s="154"/>
+    </row>
+    <row r="88" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="140" t="s">
+        <v>529</v>
+      </c>
+      <c r="B88" s="135" t="s">
+        <v>531</v>
+      </c>
+      <c r="C88" s="146" t="s">
+        <v>23</v>
+      </c>
+      <c r="D88" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F88" s="140" t="s">
+        <v>529</v>
+      </c>
+      <c r="G88" s="140" t="s">
+        <v>530</v>
+      </c>
+      <c r="H88" s="154"/>
+    </row>
+    <row r="89" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="140" t="s">
+        <v>529</v>
+      </c>
+      <c r="B89" s="135" t="s">
+        <v>532</v>
+      </c>
+      <c r="C89" s="146" t="s">
+        <v>23</v>
+      </c>
+      <c r="D89" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F89" s="140" t="s">
+        <v>529</v>
+      </c>
+      <c r="G89" s="140" t="s">
+        <v>530</v>
+      </c>
+      <c r="H89" s="154"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+    </row>
+    <row r="91" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="139" t="s">
+        <v>429</v>
+      </c>
+      <c r="B91" s="139"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="14"/>
+      <c r="H91" s="15" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="105" t="s">
+        <v>22</v>
+      </c>
+      <c r="B93" s="105"/>
+      <c r="C93" s="105"/>
+      <c r="D93" s="105"/>
+      <c r="E93" s="105"/>
+      <c r="F93" s="105"/>
+      <c r="G93" s="105"/>
+      <c r="H93" s="105"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="136" t="s">
+        <v>17</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C94" s="136" t="s">
+        <v>21</v>
+      </c>
+      <c r="D94" s="136" t="s">
+        <v>24</v>
+      </c>
+      <c r="E94" s="136" t="s">
+        <v>62</v>
+      </c>
+      <c r="F94" s="136" t="s">
+        <v>15</v>
+      </c>
+      <c r="G94" s="136" t="s">
+        <v>16</v>
+      </c>
+      <c r="H94" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A95" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D95" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E95" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F95" s="14" t="s">
+        <v>545</v>
+      </c>
+      <c r="G95" s="14" t="s">
+        <v>546</v>
+      </c>
+      <c r="H95" s="15" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D96" s="13"/>
+      <c r="E96" s="13"/>
+    </row>
+    <row r="97" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D97" s="13"/>
+      <c r="E97" s="13"/>
+    </row>
+    <row r="98" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D98" s="13"/>
+      <c r="E98" s="13"/>
+    </row>
+    <row r="99" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D99" s="13"/>
+      <c r="E99" s="13"/>
+    </row>
+    <row r="100" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D100" s="13"/>
+      <c r="E100" s="13"/>
+    </row>
+    <row r="101" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D101" s="13"/>
+      <c r="E101" s="13"/>
+    </row>
+    <row r="102" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D102" s="13"/>
+      <c r="E102" s="13"/>
+    </row>
+    <row r="103" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D103" s="13"/>
+      <c r="E103" s="13"/>
+    </row>
+    <row r="104" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D104" s="13"/>
+      <c r="E104" s="13"/>
+    </row>
+    <row r="105" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D105" s="13"/>
+      <c r="E105" s="13"/>
+    </row>
+    <row r="106" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D106" s="13"/>
+      <c r="E106" s="13"/>
+    </row>
+    <row r="107" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D107" s="13"/>
+      <c r="E107" s="13"/>
+    </row>
+    <row r="108" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D108" s="13"/>
+      <c r="E108" s="13"/>
+    </row>
+    <row r="109" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D109" s="13"/>
+      <c r="E109" s="13"/>
+    </row>
+    <row r="110" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D110" s="13"/>
+      <c r="E110" s="13"/>
+    </row>
+    <row r="111" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D111" s="13"/>
+      <c r="E111" s="13"/>
+    </row>
+    <row r="112" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D112" s="13"/>
+      <c r="E112" s="13"/>
+    </row>
+    <row r="113" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D113" s="13"/>
+      <c r="E113" s="13"/>
+    </row>
+    <row r="114" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D114" s="13"/>
+      <c r="E114" s="13"/>
+    </row>
+    <row r="115" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D115" s="13"/>
+      <c r="E115" s="13"/>
+    </row>
+    <row r="116" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D116" s="13"/>
+      <c r="E116" s="13"/>
+    </row>
+    <row r="117" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D117" s="13"/>
+      <c r="E117" s="13"/>
+    </row>
+    <row r="118" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D118" s="13"/>
+      <c r="E118" s="13"/>
+    </row>
+    <row r="119" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D119" s="13"/>
+      <c r="E119" s="13"/>
+    </row>
+    <row r="120" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D120" s="13"/>
+      <c r="E120" s="13"/>
+    </row>
+    <row r="121" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D121" s="13"/>
+      <c r="E121" s="13"/>
+    </row>
+    <row r="122" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D122" s="13"/>
+      <c r="E122" s="13"/>
+    </row>
+    <row r="123" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D123" s="13"/>
+      <c r="E123" s="13"/>
+    </row>
+    <row r="124" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D124" s="13"/>
+      <c r="E124" s="13"/>
+    </row>
+    <row r="125" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D125" s="13"/>
+      <c r="E125" s="13"/>
+    </row>
+    <row r="126" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D126" s="13"/>
+      <c r="E126" s="13"/>
+    </row>
+    <row r="127" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D127" s="13"/>
+      <c r="E127" s="13"/>
+    </row>
+    <row r="128" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D128" s="13"/>
+      <c r="E128" s="13"/>
+    </row>
+    <row r="129" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D129" s="13"/>
+      <c r="E129" s="13"/>
+    </row>
+    <row r="130" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D130" s="13"/>
+      <c r="E130" s="13"/>
+    </row>
+    <row r="131" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D131" s="13"/>
+      <c r="E131" s="13"/>
+    </row>
+    <row r="132" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D132" s="13"/>
+      <c r="E132" s="13"/>
+    </row>
+    <row r="133" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D133" s="13"/>
+      <c r="E133" s="13"/>
+    </row>
+    <row r="134" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D134" s="13"/>
+      <c r="E134" s="13"/>
+    </row>
+    <row r="135" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D135" s="13"/>
+      <c r="E135" s="13"/>
+    </row>
+    <row r="136" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D136" s="13"/>
+      <c r="E136" s="13"/>
+    </row>
+    <row r="137" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D137" s="13"/>
+      <c r="E137" s="13"/>
+    </row>
+    <row r="138" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D138" s="13"/>
+      <c r="E138" s="13"/>
+    </row>
+    <row r="139" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D139" s="13"/>
+      <c r="E139" s="13"/>
+    </row>
+    <row r="140" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D140" s="13"/>
+      <c r="E140" s="13"/>
+    </row>
+    <row r="141" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D141" s="13"/>
+      <c r="E141" s="13"/>
+    </row>
+    <row r="142" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D142" s="13"/>
+      <c r="E142" s="13"/>
+    </row>
+    <row r="143" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D143" s="13"/>
+      <c r="E143" s="13"/>
+    </row>
+    <row r="144" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D144" s="13"/>
+      <c r="E144" s="13"/>
+    </row>
+    <row r="145" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D145" s="13"/>
+      <c r="E145" s="13"/>
+    </row>
+    <row r="146" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D146" s="13"/>
+      <c r="E146" s="13"/>
+    </row>
+    <row r="147" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D147" s="13"/>
+      <c r="E147" s="13"/>
+    </row>
+    <row r="148" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D148" s="13"/>
+      <c r="E148" s="13"/>
+    </row>
+    <row r="149" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D149" s="13"/>
+      <c r="E149" s="13"/>
+    </row>
+    <row r="150" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D150" s="13"/>
+      <c r="E150" s="13"/>
+    </row>
+    <row r="151" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D151" s="13"/>
+      <c r="E151" s="13"/>
+    </row>
+    <row r="152" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D152" s="13"/>
+      <c r="E152" s="13"/>
+    </row>
+    <row r="153" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D153" s="13"/>
+      <c r="E153" s="13"/>
+    </row>
+    <row r="154" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D154" s="13"/>
+      <c r="E154" s="13"/>
+    </row>
+    <row r="155" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D155" s="13"/>
+      <c r="E155" s="13"/>
+    </row>
+    <row r="156" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D156" s="13"/>
+      <c r="E156" s="13"/>
+    </row>
+    <row r="157" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D157" s="13"/>
+      <c r="E157" s="13"/>
+    </row>
+    <row r="158" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D158" s="13"/>
+      <c r="E158" s="13"/>
+    </row>
+    <row r="159" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D159" s="13"/>
+      <c r="E159" s="13"/>
+    </row>
+    <row r="160" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D160" s="13"/>
+      <c r="E160" s="13"/>
+    </row>
+    <row r="161" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D161" s="13"/>
+      <c r="E161" s="13"/>
+    </row>
+    <row r="162" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D162" s="13"/>
+      <c r="E162" s="13"/>
+    </row>
+    <row r="163" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D163" s="13"/>
+      <c r="E163" s="13"/>
+    </row>
+    <row r="164" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D164" s="13"/>
+      <c r="E164" s="13"/>
+    </row>
+    <row r="165" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D165" s="13"/>
+      <c r="E165" s="13"/>
+    </row>
+    <row r="166" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D166" s="13"/>
+      <c r="E166" s="13"/>
+    </row>
+    <row r="167" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D167" s="13"/>
+      <c r="E167" s="13"/>
+    </row>
+    <row r="168" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D168" s="13"/>
+      <c r="E168" s="13"/>
+    </row>
+    <row r="169" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D169" s="13"/>
+      <c r="E169" s="13"/>
+    </row>
+    <row r="170" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D170" s="13"/>
+      <c r="E170" s="13"/>
+    </row>
+    <row r="171" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D171" s="13"/>
+      <c r="E171" s="13"/>
+    </row>
+    <row r="172" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D172" s="13"/>
+      <c r="E172" s="13"/>
+    </row>
+    <row r="173" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D173" s="13"/>
+      <c r="E173" s="13"/>
+    </row>
+    <row r="174" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D174" s="13"/>
+      <c r="E174" s="13"/>
+    </row>
+    <row r="175" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D175" s="13"/>
+    </row>
+    <row r="176" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D176" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="H82:H89"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A93:H93"/>
+    <mergeCell ref="H17:H33"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="H41:H48"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="H58:H74"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A16:B16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'Data Type'!$C$3:$C$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>D95:D170 D3:D92</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'Data Type'!$D$3:$D$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>E95:E174 E3:E92</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H136"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.42578125" style="135" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.28515625" style="135" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="135" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="135" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="135" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="135" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.28515625" style="135" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="54" style="135" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="135"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="105" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="136" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="136" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="136" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="136" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="136" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="136" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="137" t="s">
+        <v>550</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="138"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>552</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="17"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="137" t="s">
+        <v>409</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="17"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="139" t="s">
+        <v>355</v>
+      </c>
+      <c r="B10" s="139"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="H11" s="147" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="H12" s="147"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="141" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="141"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="147"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="140" t="s">
+        <v>522</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="140" t="s">
+        <v>522</v>
+      </c>
+      <c r="G14" s="140" t="s">
+        <v>521</v>
+      </c>
+      <c r="H14" s="147"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="140" t="s">
+        <v>522</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="140" t="s">
+        <v>522</v>
+      </c>
+      <c r="G15" s="140" t="s">
+        <v>521</v>
+      </c>
+      <c r="H15" s="147"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="141" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="141"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="147"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="H17" s="147"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="H18" s="147"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="143" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="147"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="144" t="s">
+        <v>525</v>
+      </c>
+      <c r="B20" s="144" t="s">
+        <v>527</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="140" t="s">
+        <v>525</v>
+      </c>
+      <c r="G20" s="140" t="s">
+        <v>526</v>
+      </c>
+      <c r="H20" s="147"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="144" t="s">
+        <v>525</v>
+      </c>
+      <c r="B21" s="144" t="s">
+        <v>528</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="140" t="s">
+        <v>525</v>
+      </c>
+      <c r="G21" s="140" t="s">
+        <v>526</v>
+      </c>
+      <c r="H21" s="147"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="141" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="141"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="147"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="H23" s="147"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="H24" s="147"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="145" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="H25" s="147"/>
+    </row>
+    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="140" t="s">
+        <v>529</v>
+      </c>
+      <c r="B26" s="135" t="s">
+        <v>531</v>
+      </c>
+      <c r="C26" s="146" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" s="140" t="s">
+        <v>529</v>
+      </c>
+      <c r="G26" s="140" t="s">
+        <v>530</v>
+      </c>
+      <c r="H26" s="147"/>
+    </row>
+    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="140" t="s">
+        <v>529</v>
+      </c>
+      <c r="B27" s="135" t="s">
+        <v>532</v>
+      </c>
+      <c r="C27" s="146" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="140" t="s">
+        <v>529</v>
+      </c>
+      <c r="G27" s="140" t="s">
+        <v>530</v>
+      </c>
+      <c r="H27" s="147"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="148" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" s="148"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="139" t="s">
+        <v>534</v>
+      </c>
+      <c r="B30" s="139"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="140" t="s">
+        <v>535</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="146" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" s="140" t="s">
+        <v>535</v>
+      </c>
+      <c r="G31" s="140" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="140" t="s">
+        <v>537</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="135" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32" s="140" t="s">
+        <v>537</v>
+      </c>
+      <c r="G32" s="140" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="140" t="s">
+        <v>537</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="135" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="140" t="s">
+        <v>537</v>
+      </c>
+      <c r="G33" s="140" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="155"/>
+      <c r="B34" s="155" t="s">
+        <v>539</v>
+      </c>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="140" t="s">
+        <v>522</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" s="140" t="s">
+        <v>522</v>
+      </c>
+      <c r="G35" s="140" t="s">
+        <v>521</v>
+      </c>
+      <c r="H35" s="153" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="140" t="s">
+        <v>522</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F36" s="140" t="s">
+        <v>522</v>
+      </c>
+      <c r="G36" s="140" t="s">
+        <v>521</v>
+      </c>
+      <c r="H36" s="154"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="149" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="H37" s="154"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="144" t="s">
+        <v>525</v>
+      </c>
+      <c r="B38" s="144" t="s">
+        <v>527</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F38" s="140" t="s">
+        <v>525</v>
+      </c>
+      <c r="G38" s="140" t="s">
+        <v>526</v>
+      </c>
+      <c r="H38" s="154"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="144" t="s">
+        <v>525</v>
+      </c>
+      <c r="B39" s="144" t="s">
+        <v>528</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F39" s="140" t="s">
+        <v>525</v>
+      </c>
+      <c r="G39" s="140" t="s">
+        <v>526</v>
+      </c>
+      <c r="H39" s="154"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="150" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="H40" s="154"/>
+    </row>
+    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="140" t="s">
+        <v>529</v>
+      </c>
+      <c r="B41" s="135" t="s">
+        <v>531</v>
+      </c>
+      <c r="C41" s="146" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F41" s="140" t="s">
+        <v>529</v>
+      </c>
+      <c r="G41" s="140" t="s">
+        <v>530</v>
+      </c>
+      <c r="H41" s="154"/>
+    </row>
+    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="140" t="s">
+        <v>529</v>
+      </c>
+      <c r="B42" s="135" t="s">
+        <v>532</v>
+      </c>
+      <c r="C42" s="146" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F42" s="140" t="s">
+        <v>529</v>
+      </c>
+      <c r="G42" s="140" t="s">
+        <v>530</v>
+      </c>
+      <c r="H42" s="154"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+    </row>
+    <row r="45" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="139" t="s">
+        <v>425</v>
+      </c>
+      <c r="B45" s="139"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="15" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A46" s="139" t="s">
+        <v>429</v>
+      </c>
+      <c r="B46" s="139"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="15" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="140" t="s">
+        <v>535</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="146" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F47" s="140" t="s">
+        <v>535</v>
+      </c>
+      <c r="G47" s="140" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="139" t="s">
+        <v>555</v>
+      </c>
+      <c r="B48" s="139"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="152" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="140" t="s">
+        <v>535</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="146" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F49" s="140" t="s">
+        <v>535</v>
+      </c>
+      <c r="G49" s="140" t="s">
+        <v>536</v>
+      </c>
+      <c r="H49" s="152"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F50" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="G50" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="H50" s="151" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F51" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="G51" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="H51" s="151"/>
+    </row>
+    <row r="52" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A52" s="139" t="s">
+        <v>558</v>
+      </c>
+      <c r="B52" s="139"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="15" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="105" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53" s="105"/>
+      <c r="C53" s="105"/>
+      <c r="D53" s="105"/>
+      <c r="E53" s="105"/>
+      <c r="F53" s="105"/>
+      <c r="G53" s="105"/>
+      <c r="H53" s="105"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="136" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" s="136" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" s="136" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54" s="136" t="s">
+        <v>62</v>
+      </c>
+      <c r="F54" s="136" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54" s="136" t="s">
+        <v>16</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="B55" s="12"/>
+      <c r="C55" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" s="13"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="15" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+    </row>
+    <row r="63" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A63" s="135" t="s">
+        <v>562</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E63" s="13"/>
+      <c r="H63" s="156" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+    </row>
+    <row r="65" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+    </row>
+    <row r="66" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+    </row>
+    <row r="67" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+    </row>
+    <row r="68" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+    </row>
+    <row r="69" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+    </row>
+    <row r="70" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+    </row>
+    <row r="71" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+    </row>
+    <row r="72" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+    </row>
+    <row r="73" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+    </row>
+    <row r="74" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+    </row>
+    <row r="75" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+    </row>
+    <row r="76" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+    </row>
+    <row r="77" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+    </row>
+    <row r="78" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+    </row>
+    <row r="79" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+    </row>
+    <row r="80" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+    </row>
+    <row r="81" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
+    </row>
+    <row r="82" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+    </row>
+    <row r="83" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+    </row>
+    <row r="84" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+    </row>
+    <row r="85" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
+    </row>
+    <row r="86" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+    </row>
+    <row r="87" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+    </row>
+    <row r="88" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+    </row>
+    <row r="89" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
+    </row>
+    <row r="90" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+    </row>
+    <row r="91" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
+    </row>
+    <row r="92" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
+    </row>
+    <row r="93" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
+    </row>
+    <row r="94" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
+    </row>
+    <row r="95" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D95" s="13"/>
+      <c r="E95" s="13"/>
+    </row>
+    <row r="96" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D96" s="13"/>
+      <c r="E96" s="13"/>
+    </row>
+    <row r="97" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D97" s="13"/>
+      <c r="E97" s="13"/>
+    </row>
+    <row r="98" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D98" s="13"/>
+      <c r="E98" s="13"/>
+    </row>
+    <row r="99" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D99" s="13"/>
+      <c r="E99" s="13"/>
+    </row>
+    <row r="100" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D100" s="13"/>
+      <c r="E100" s="13"/>
+    </row>
+    <row r="101" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D101" s="13"/>
+      <c r="E101" s="13"/>
+    </row>
+    <row r="102" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D102" s="13"/>
+      <c r="E102" s="13"/>
+    </row>
+    <row r="103" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D103" s="13"/>
+      <c r="E103" s="13"/>
+    </row>
+    <row r="104" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D104" s="13"/>
+      <c r="E104" s="13"/>
+    </row>
+    <row r="105" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D105" s="13"/>
+      <c r="E105" s="13"/>
+    </row>
+    <row r="106" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D106" s="13"/>
+      <c r="E106" s="13"/>
+    </row>
+    <row r="107" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D107" s="13"/>
+      <c r="E107" s="13"/>
+    </row>
+    <row r="108" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D108" s="13"/>
+      <c r="E108" s="13"/>
+    </row>
+    <row r="109" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D109" s="13"/>
+      <c r="E109" s="13"/>
+    </row>
+    <row r="110" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D110" s="13"/>
+      <c r="E110" s="13"/>
+    </row>
+    <row r="111" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D111" s="13"/>
+      <c r="E111" s="13"/>
+    </row>
+    <row r="112" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D112" s="13"/>
+      <c r="E112" s="13"/>
+    </row>
+    <row r="113" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D113" s="13"/>
+      <c r="E113" s="13"/>
+    </row>
+    <row r="114" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D114" s="13"/>
+      <c r="E114" s="13"/>
+    </row>
+    <row r="115" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D115" s="13"/>
+      <c r="E115" s="13"/>
+    </row>
+    <row r="116" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D116" s="13"/>
+      <c r="E116" s="13"/>
+    </row>
+    <row r="117" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D117" s="13"/>
+      <c r="E117" s="13"/>
+    </row>
+    <row r="118" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D118" s="13"/>
+      <c r="E118" s="13"/>
+    </row>
+    <row r="119" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D119" s="13"/>
+      <c r="E119" s="13"/>
+    </row>
+    <row r="120" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D120" s="13"/>
+      <c r="E120" s="13"/>
+    </row>
+    <row r="121" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D121" s="13"/>
+      <c r="E121" s="13"/>
+    </row>
+    <row r="122" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D122" s="13"/>
+      <c r="E122" s="13"/>
+    </row>
+    <row r="123" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D123" s="13"/>
+      <c r="E123" s="13"/>
+    </row>
+    <row r="124" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D124" s="13"/>
+      <c r="E124" s="13"/>
+    </row>
+    <row r="125" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D125" s="13"/>
+      <c r="E125" s="13"/>
+    </row>
+    <row r="126" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D126" s="13"/>
+      <c r="E126" s="13"/>
+    </row>
+    <row r="127" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D127" s="13"/>
+      <c r="E127" s="13"/>
+    </row>
+    <row r="128" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D128" s="13"/>
+      <c r="E128" s="13"/>
+    </row>
+    <row r="129" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D129" s="13"/>
+      <c r="E129" s="13"/>
+    </row>
+    <row r="130" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D130" s="13"/>
+      <c r="E130" s="13"/>
+    </row>
+    <row r="131" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D131" s="13"/>
+      <c r="E131" s="13"/>
+    </row>
+    <row r="132" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D132" s="13"/>
+      <c r="E132" s="13"/>
+    </row>
+    <row r="133" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D133" s="13"/>
+      <c r="E133" s="13"/>
+    </row>
+    <row r="134" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D134" s="13"/>
+      <c r="E134" s="13"/>
+    </row>
+    <row r="135" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D135" s="13"/>
+    </row>
+    <row r="136" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D136" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A53:H53"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="H35:H42"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="H11:H27"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'Data Type'!$D$3:$D$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>E55:E134 E3:E52</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'Data Type'!$C$3:$C$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>D55:D130 D3:D52</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:D15"/>
   <sheetViews>
@@ -6116,7 +9950,7 @@
       <c r="G14" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="H14" s="116" t="s">
+      <c r="H14" s="113" t="s">
         <v>264</v>
       </c>
     </row>
@@ -6142,19 +9976,19 @@
       <c r="G15" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="H15" s="116"/>
+      <c r="H15" s="113"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="109" t="s">
+      <c r="A16" s="110" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="109"/>
+      <c r="B16" s="110"/>
       <c r="C16" s="31"/>
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
       <c r="F16" s="30"/>
       <c r="G16" s="30"/>
-      <c r="H16" s="116"/>
+      <c r="H16" s="113"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="69" t="s">
@@ -6166,7 +10000,7 @@
       <c r="E17" s="24"/>
       <c r="F17" s="30"/>
       <c r="G17" s="30"/>
-      <c r="H17" s="116"/>
+      <c r="H17" s="113"/>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
@@ -6190,7 +10024,7 @@
       <c r="G18" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="H18" s="116"/>
+      <c r="H18" s="113"/>
     </row>
     <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
@@ -6214,19 +10048,19 @@
       <c r="G19" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="H19" s="116"/>
+      <c r="H19" s="113"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="114" t="s">
+      <c r="A20" s="111" t="s">
         <v>263</v>
       </c>
-      <c r="B20" s="115"/>
+      <c r="B20" s="112"/>
       <c r="C20" s="31"/>
       <c r="D20" s="25"/>
       <c r="E20" s="24"/>
       <c r="F20" s="30"/>
       <c r="G20" s="30"/>
-      <c r="H20" s="116"/>
+      <c r="H20" s="113"/>
     </row>
     <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
@@ -6250,7 +10084,7 @@
       <c r="G21" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="H21" s="116"/>
+      <c r="H21" s="113"/>
     </row>
     <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
@@ -6274,19 +10108,19 @@
       <c r="G22" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="H22" s="116"/>
+      <c r="H22" s="113"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="109" t="s">
+      <c r="A23" s="110" t="s">
         <v>91</v>
       </c>
-      <c r="B23" s="109"/>
+      <c r="B23" s="110"/>
       <c r="C23" s="31"/>
       <c r="D23" s="24"/>
       <c r="E23" s="24"/>
       <c r="F23" s="30"/>
       <c r="G23" s="30"/>
-      <c r="H23" s="116"/>
+      <c r="H23" s="113"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="69" t="s">
@@ -6298,7 +10132,7 @@
       <c r="E24" s="24"/>
       <c r="F24" s="30"/>
       <c r="G24" s="30"/>
-      <c r="H24" s="116"/>
+      <c r="H24" s="113"/>
     </row>
     <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
@@ -6322,7 +10156,7 @@
       <c r="G25" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="H25" s="116"/>
+      <c r="H25" s="113"/>
     </row>
     <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
@@ -6346,7 +10180,7 @@
       <c r="G26" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="H26" s="116"/>
+      <c r="H26" s="113"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
@@ -6370,7 +10204,7 @@
       <c r="G27" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="H27" s="116"/>
+      <c r="H27" s="113"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="30" t="s">
@@ -6394,7 +10228,7 @@
       <c r="G28" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="H28" s="116"/>
+      <c r="H28" s="113"/>
     </row>
     <row r="29" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="30" t="s">
@@ -6418,7 +10252,7 @@
       <c r="G29" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="H29" s="116"/>
+      <c r="H29" s="113"/>
     </row>
     <row r="30" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
@@ -6442,7 +10276,7 @@
       <c r="G30" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="H30" s="116"/>
+      <c r="H30" s="113"/>
     </row>
     <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="45" t="s">
@@ -6460,19 +10294,19 @@
       <c r="E31" s="24"/>
       <c r="F31" s="30"/>
       <c r="G31" s="30"/>
-      <c r="H31" s="116"/>
+      <c r="H31" s="113"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="109" t="s">
+      <c r="A32" s="110" t="s">
         <v>91</v>
       </c>
-      <c r="B32" s="109"/>
+      <c r="B32" s="110"/>
       <c r="C32" s="31"/>
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
       <c r="F32" s="30"/>
       <c r="G32" s="30"/>
-      <c r="H32" s="116"/>
+      <c r="H32" s="113"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="70" t="s">
@@ -6484,7 +10318,7 @@
       <c r="E33" s="24"/>
       <c r="F33" s="30"/>
       <c r="G33" s="30"/>
-      <c r="H33" s="116"/>
+      <c r="H33" s="113"/>
     </row>
     <row r="34" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="45" t="s">
@@ -6502,19 +10336,19 @@
       <c r="E34" s="24"/>
       <c r="F34" s="30"/>
       <c r="G34" s="30"/>
-      <c r="H34" s="116"/>
+      <c r="H34" s="113"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="109" t="s">
+      <c r="A35" s="110" t="s">
         <v>91</v>
       </c>
-      <c r="B35" s="109"/>
+      <c r="B35" s="110"/>
       <c r="C35" s="31"/>
       <c r="D35" s="24"/>
       <c r="E35" s="24"/>
       <c r="F35" s="30"/>
       <c r="G35" s="30"/>
-      <c r="H35" s="116"/>
+      <c r="H35" s="113"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="69" t="s">
@@ -6526,7 +10360,7 @@
       <c r="E36" s="24"/>
       <c r="F36" s="30"/>
       <c r="G36" s="30"/>
-      <c r="H36" s="116"/>
+      <c r="H36" s="113"/>
     </row>
     <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="45" t="s">
@@ -6544,7 +10378,7 @@
       <c r="E37" s="24"/>
       <c r="F37" s="30"/>
       <c r="G37" s="30"/>
-      <c r="H37" s="116"/>
+      <c r="H37" s="113"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
@@ -6707,10 +10541,10 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="107" t="s">
+      <c r="A47" s="115" t="s">
         <v>91</v>
       </c>
-      <c r="B47" s="107"/>
+      <c r="B47" s="115"/>
       <c r="C47" s="31"/>
       <c r="D47" s="24"/>
       <c r="E47" s="24"/>
@@ -6740,7 +10574,7 @@
       <c r="G48" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="H48" s="110" t="s">
+      <c r="H48" s="114" t="s">
         <v>227</v>
       </c>
     </row>
@@ -6754,7 +10588,7 @@
       <c r="E49" s="24"/>
       <c r="F49" s="27"/>
       <c r="G49" s="38"/>
-      <c r="H49" s="110"/>
+      <c r="H49" s="114"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="30" t="s">
@@ -6778,7 +10612,7 @@
       <c r="G50" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="H50" s="110"/>
+      <c r="H50" s="114"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="42" t="s">
@@ -6790,7 +10624,7 @@
       <c r="E51" s="24"/>
       <c r="F51" s="27"/>
       <c r="G51" s="38"/>
-      <c r="H51" s="110"/>
+      <c r="H51" s="114"/>
     </row>
     <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
@@ -6814,7 +10648,7 @@
       <c r="G52" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="H52" s="110"/>
+      <c r="H52" s="114"/>
     </row>
     <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
@@ -6838,13 +10672,13 @@
       <c r="G53" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="H53" s="110"/>
+      <c r="H53" s="114"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="107" t="s">
+      <c r="A54" s="115" t="s">
         <v>91</v>
       </c>
-      <c r="B54" s="107"/>
+      <c r="B54" s="115"/>
       <c r="C54" s="31"/>
       <c r="D54" s="24"/>
       <c r="E54" s="24"/>
@@ -6874,7 +10708,7 @@
       <c r="G55" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="H55" s="110" t="s">
+      <c r="H55" s="114" t="s">
         <v>228</v>
       </c>
     </row>
@@ -6888,7 +10722,7 @@
       <c r="E56" s="24"/>
       <c r="F56" s="27"/>
       <c r="G56" s="27"/>
-      <c r="H56" s="110"/>
+      <c r="H56" s="114"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
@@ -6912,7 +10746,7 @@
       <c r="G57" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="H57" s="110"/>
+      <c r="H57" s="114"/>
     </row>
     <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
@@ -6936,7 +10770,7 @@
       <c r="G58" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="H58" s="110"/>
+      <c r="H58" s="114"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="40" t="s">
@@ -6948,7 +10782,7 @@
       <c r="E59" s="24"/>
       <c r="F59" s="27"/>
       <c r="G59" s="27"/>
-      <c r="H59" s="110"/>
+      <c r="H59" s="114"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="30" t="s">
@@ -6972,7 +10806,7 @@
       <c r="G60" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="H60" s="110"/>
+      <c r="H60" s="114"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="42" t="s">
@@ -6984,7 +10818,7 @@
       <c r="E61" s="24"/>
       <c r="F61" s="27"/>
       <c r="G61" s="38"/>
-      <c r="H61" s="110"/>
+      <c r="H61" s="114"/>
     </row>
     <row r="62" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
@@ -7008,7 +10842,7 @@
       <c r="G62" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="H62" s="110"/>
+      <c r="H62" s="114"/>
     </row>
     <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
@@ -7032,7 +10866,7 @@
       <c r="G63" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="H63" s="110"/>
+      <c r="H63" s="114"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="40" t="s">
@@ -7044,7 +10878,7 @@
       <c r="E64" s="24"/>
       <c r="F64" s="27"/>
       <c r="G64" s="27"/>
-      <c r="H64" s="110"/>
+      <c r="H64" s="114"/>
     </row>
     <row r="65" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="30" t="s">
@@ -7068,7 +10902,7 @@
       <c r="G65" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="H65" s="110"/>
+      <c r="H65" s="114"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="40" t="s">
@@ -7080,7 +10914,7 @@
       <c r="E66" s="24"/>
       <c r="F66" s="27"/>
       <c r="G66" s="27"/>
-      <c r="H66" s="110"/>
+      <c r="H66" s="114"/>
     </row>
     <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="30" t="s">
@@ -7104,7 +10938,7 @@
       <c r="G67" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="H67" s="110"/>
+      <c r="H67" s="114"/>
     </row>
     <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="30" t="s">
@@ -7128,7 +10962,7 @@
       <c r="G68" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="H68" s="110"/>
+      <c r="H68" s="114"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="40" t="s">
@@ -7202,7 +11036,7 @@
       <c r="G72" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="H72" s="108" t="s">
+      <c r="H72" s="116" t="s">
         <v>230</v>
       </c>
     </row>
@@ -7228,7 +11062,7 @@
       <c r="G73" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="H73" s="108"/>
+      <c r="H73" s="116"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="42" t="s">
@@ -7240,7 +11074,7 @@
       <c r="E74" s="24"/>
       <c r="F74" s="30"/>
       <c r="G74" s="30"/>
-      <c r="H74" s="108"/>
+      <c r="H74" s="116"/>
     </row>
     <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="30" t="s">
@@ -7264,7 +11098,7 @@
       <c r="G75" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="H75" s="108"/>
+      <c r="H75" s="116"/>
     </row>
     <row r="76" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="30" t="s">
@@ -7288,19 +11122,19 @@
       <c r="G76" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="H76" s="108"/>
+      <c r="H76" s="116"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="107" t="s">
+      <c r="A77" s="115" t="s">
         <v>91</v>
       </c>
-      <c r="B77" s="107"/>
+      <c r="B77" s="115"/>
       <c r="C77" s="31"/>
       <c r="D77" s="24"/>
       <c r="E77" s="24"/>
       <c r="F77" s="27"/>
       <c r="G77" s="27"/>
-      <c r="H77" s="108"/>
+      <c r="H77" s="116"/>
     </row>
     <row r="78" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="30" t="s">
@@ -7324,7 +11158,7 @@
       <c r="G78" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="H78" s="108"/>
+      <c r="H78" s="116"/>
     </row>
     <row r="79" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="30" t="s">
@@ -7348,7 +11182,7 @@
       <c r="G79" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="H79" s="108"/>
+      <c r="H79" s="116"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="40" t="s">
@@ -7384,21 +11218,21 @@
       <c r="G81" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="H81" s="108" t="s">
+      <c r="H81" s="116" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="107" t="s">
+      <c r="A82" s="115" t="s">
         <v>91</v>
       </c>
-      <c r="B82" s="107"/>
+      <c r="B82" s="115"/>
       <c r="C82" s="31"/>
       <c r="D82" s="24"/>
       <c r="E82" s="24"/>
       <c r="F82" s="27"/>
       <c r="G82" s="27"/>
-      <c r="H82" s="108"/>
+      <c r="H82" s="116"/>
     </row>
     <row r="83" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A83" s="30" t="s">
@@ -7422,7 +11256,7 @@
       <c r="G83" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="H83" s="108"/>
+      <c r="H83" s="116"/>
     </row>
     <row r="84" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A84" s="30" t="s">
@@ -7446,7 +11280,7 @@
       <c r="G84" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="H84" s="108"/>
+      <c r="H84" s="116"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="42" t="s">
@@ -7482,7 +11316,7 @@
       <c r="G86" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="H86" s="108" t="s">
+      <c r="H86" s="116" t="s">
         <v>232</v>
       </c>
     </row>
@@ -7508,7 +11342,7 @@
       <c r="G87" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="H87" s="108"/>
+      <c r="H87" s="116"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="42" t="s">
@@ -7544,21 +11378,21 @@
       <c r="G89" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="H89" s="108" t="s">
+      <c r="H89" s="116" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="109" t="s">
+      <c r="A90" s="110" t="s">
         <v>91</v>
       </c>
-      <c r="B90" s="109"/>
+      <c r="B90" s="110"/>
       <c r="C90" s="31"/>
       <c r="D90" s="24"/>
       <c r="E90" s="24"/>
       <c r="F90" s="30"/>
       <c r="G90" s="30"/>
-      <c r="H90" s="108"/>
+      <c r="H90" s="116"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="30" t="s">
@@ -7582,7 +11416,7 @@
       <c r="G91" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="H91" s="108"/>
+      <c r="H91" s="116"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="30" t="s">
@@ -7606,7 +11440,7 @@
       <c r="G92" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="H92" s="108"/>
+      <c r="H92" s="116"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="42" t="s">
@@ -7642,21 +11476,21 @@
       <c r="G94" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="H94" s="108" t="s">
+      <c r="H94" s="116" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="109" t="s">
+      <c r="A95" s="110" t="s">
         <v>91</v>
       </c>
-      <c r="B95" s="109"/>
+      <c r="B95" s="110"/>
       <c r="C95" s="31"/>
       <c r="D95" s="24"/>
       <c r="E95" s="24"/>
       <c r="F95" s="30"/>
       <c r="G95" s="30"/>
-      <c r="H95" s="108"/>
+      <c r="H95" s="116"/>
     </row>
     <row r="96" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="30" t="s">
@@ -7680,19 +11514,19 @@
       <c r="G96" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="H96" s="108"/>
+      <c r="H96" s="116"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="109" t="s">
+      <c r="A97" s="110" t="s">
         <v>91</v>
       </c>
-      <c r="B97" s="109"/>
+      <c r="B97" s="110"/>
       <c r="C97" s="31"/>
       <c r="D97" s="24"/>
       <c r="E97" s="24"/>
       <c r="F97" s="30"/>
       <c r="G97" s="30"/>
-      <c r="H97" s="108"/>
+      <c r="H97" s="116"/>
     </row>
     <row r="98" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="30" t="s">
@@ -7716,7 +11550,7 @@
       <c r="G98" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="H98" s="108"/>
+      <c r="H98" s="116"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="42" t="s">
@@ -7728,7 +11562,7 @@
       <c r="E99" s="24"/>
       <c r="F99" s="30"/>
       <c r="G99" s="30"/>
-      <c r="H99" s="108"/>
+      <c r="H99" s="116"/>
     </row>
     <row r="100" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="30" t="s">
@@ -7752,7 +11586,7 @@
       <c r="G100" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="H100" s="108"/>
+      <c r="H100" s="116"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="42" t="s">
@@ -7922,19 +11756,19 @@
       <c r="E113" s="8"/>
     </row>
     <row r="114" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="111" t="s">
+      <c r="A114" s="107" t="s">
         <v>237</v>
       </c>
-      <c r="B114" s="112"/>
-      <c r="C114" s="112"/>
-      <c r="D114" s="112"/>
-      <c r="E114" s="112"/>
-      <c r="F114" s="112"/>
-      <c r="G114" s="112"/>
-      <c r="H114" s="112"/>
-      <c r="I114" s="112"/>
-      <c r="J114" s="112"/>
-      <c r="K114" s="113"/>
+      <c r="B114" s="108"/>
+      <c r="C114" s="108"/>
+      <c r="D114" s="108"/>
+      <c r="E114" s="108"/>
+      <c r="F114" s="108"/>
+      <c r="G114" s="108"/>
+      <c r="H114" s="108"/>
+      <c r="I114" s="108"/>
+      <c r="J114" s="108"/>
+      <c r="K114" s="109"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="52" t="s">
@@ -8256,14 +12090,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A114:K114"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="H14:H37"/>
-    <mergeCell ref="H55:H68"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="H72:H79"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A39:H39"/>
     <mergeCell ref="A112:B112"/>
@@ -8280,6 +12106,14 @@
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="H48:H53"/>
     <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A114:K114"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="H14:H37"/>
+    <mergeCell ref="H55:H68"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="H72:H79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -8585,10 +12419,10 @@
       <c r="H13" s="117"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="114" t="s">
+      <c r="A14" s="111" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="115"/>
+      <c r="B14" s="112"/>
       <c r="C14" s="31"/>
       <c r="D14" s="24"/>
       <c r="E14" s="24"/>
@@ -8718,21 +12552,21 @@
       <c r="G20" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="H20" s="110" t="s">
+      <c r="H20" s="114" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="107" t="s">
+      <c r="A21" s="115" t="s">
         <v>91</v>
       </c>
-      <c r="B21" s="107"/>
+      <c r="B21" s="115"/>
       <c r="C21" s="31"/>
       <c r="D21" s="24"/>
       <c r="E21" s="24"/>
       <c r="F21" s="27"/>
       <c r="G21" s="27"/>
-      <c r="H21" s="110"/>
+      <c r="H21" s="114"/>
     </row>
     <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
@@ -8756,19 +12590,19 @@
       <c r="G22" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="H22" s="110"/>
+      <c r="H22" s="114"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="107" t="s">
+      <c r="A23" s="115" t="s">
         <v>91</v>
       </c>
-      <c r="B23" s="107"/>
+      <c r="B23" s="115"/>
       <c r="C23" s="31"/>
       <c r="D23" s="24"/>
       <c r="E23" s="24"/>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
-      <c r="H23" s="110"/>
+      <c r="H23" s="114"/>
     </row>
     <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
@@ -8792,7 +12626,7 @@
       <c r="G24" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="H24" s="110"/>
+      <c r="H24" s="114"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="42" t="s">
@@ -8804,7 +12638,7 @@
       <c r="E25" s="24"/>
       <c r="F25" s="30"/>
       <c r="G25" s="30"/>
-      <c r="H25" s="110"/>
+      <c r="H25" s="114"/>
     </row>
     <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
@@ -8828,7 +12662,7 @@
       <c r="G26" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="H26" s="110"/>
+      <c r="H26" s="114"/>
     </row>
     <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
@@ -9274,10 +13108,10 @@
       <c r="H16" s="117"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="109" t="s">
+      <c r="A17" s="110" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="109"/>
+      <c r="B17" s="110"/>
       <c r="C17" s="31"/>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
@@ -10084,16 +13918,16 @@
       <c r="H12" s="26"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="122" t="s">
+      <c r="A13" s="125" t="s">
         <v>299</v>
       </c>
-      <c r="B13" s="123"/>
-      <c r="C13" s="123"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="124"/>
+      <c r="B13" s="126"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="126"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="127"/>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
@@ -10144,10 +13978,10 @@
       <c r="H15" s="117"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="109" t="s">
+      <c r="A16" s="110" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="109"/>
+      <c r="B16" s="110"/>
       <c r="C16" s="31"/>
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
@@ -10204,10 +14038,10 @@
       <c r="H18" s="102"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="120" t="s">
+      <c r="A19" s="123" t="s">
         <v>263</v>
       </c>
-      <c r="B19" s="121"/>
+      <c r="B19" s="124"/>
       <c r="C19" s="31"/>
       <c r="D19" s="24"/>
       <c r="E19" s="24"/>
@@ -10240,10 +14074,10 @@
       <c r="H20" s="103"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="114" t="s">
+      <c r="A21" s="111" t="s">
         <v>91</v>
       </c>
-      <c r="B21" s="115"/>
+      <c r="B21" s="112"/>
       <c r="C21" s="31"/>
       <c r="D21" s="24"/>
       <c r="E21" s="24"/>
@@ -10273,7 +14107,7 @@
       <c r="G22" s="30" t="s">
         <v>306</v>
       </c>
-      <c r="H22" s="125" t="s">
+      <c r="H22" s="120" t="s">
         <v>505</v>
       </c>
     </row>
@@ -10299,13 +14133,13 @@
       <c r="G23" s="30" t="s">
         <v>306</v>
       </c>
-      <c r="H23" s="126"/>
+      <c r="H23" s="122"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="114" t="s">
+      <c r="A24" s="111" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="115"/>
+      <c r="B24" s="112"/>
       <c r="C24" s="31"/>
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
@@ -10337,7 +14171,7 @@
       <c r="G25" s="30" t="s">
         <v>306</v>
       </c>
-      <c r="H25" s="125" t="s">
+      <c r="H25" s="120" t="s">
         <v>318</v>
       </c>
     </row>
@@ -10363,7 +14197,7 @@
       <c r="G26" s="30" t="s">
         <v>306</v>
       </c>
-      <c r="H26" s="127"/>
+      <c r="H26" s="121"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="42" t="s">
@@ -10375,7 +14209,7 @@
       <c r="E27" s="24"/>
       <c r="F27" s="30"/>
       <c r="G27" s="30"/>
-      <c r="H27" s="127"/>
+      <c r="H27" s="121"/>
     </row>
     <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="30" t="s">
@@ -10399,19 +14233,19 @@
       <c r="G28" s="30" t="s">
         <v>313</v>
       </c>
-      <c r="H28" s="127"/>
+      <c r="H28" s="121"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="114" t="s">
+      <c r="A29" s="111" t="s">
         <v>94</v>
       </c>
-      <c r="B29" s="115"/>
+      <c r="B29" s="112"/>
       <c r="C29" s="31"/>
       <c r="D29" s="24"/>
       <c r="E29" s="24"/>
       <c r="F29" s="30"/>
       <c r="G29" s="30"/>
-      <c r="H29" s="127"/>
+      <c r="H29" s="121"/>
     </row>
     <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
@@ -10435,7 +14269,7 @@
       <c r="G30" s="30" t="s">
         <v>306</v>
       </c>
-      <c r="H30" s="127"/>
+      <c r="H30" s="121"/>
     </row>
     <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="30" t="s">
@@ -10459,19 +14293,19 @@
       <c r="G31" s="30" t="s">
         <v>306</v>
       </c>
-      <c r="H31" s="127"/>
+      <c r="H31" s="121"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="120" t="s">
+      <c r="A32" s="123" t="s">
         <v>263</v>
       </c>
-      <c r="B32" s="121"/>
+      <c r="B32" s="124"/>
       <c r="C32" s="31"/>
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
       <c r="F32" s="30"/>
       <c r="G32" s="30"/>
-      <c r="H32" s="127"/>
+      <c r="H32" s="121"/>
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="30" t="s">
@@ -10495,13 +14329,13 @@
       <c r="G33" s="30" t="s">
         <v>316</v>
       </c>
-      <c r="H33" s="126"/>
+      <c r="H33" s="122"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="114" t="s">
+      <c r="A34" s="111" t="s">
         <v>91</v>
       </c>
-      <c r="B34" s="115"/>
+      <c r="B34" s="112"/>
       <c r="C34" s="31"/>
       <c r="D34" s="24"/>
       <c r="E34" s="24"/>
@@ -10533,21 +14367,21 @@
       <c r="G35" s="30" t="s">
         <v>324</v>
       </c>
-      <c r="H35" s="125" t="s">
+      <c r="H35" s="120" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="120" t="s">
+      <c r="A36" s="123" t="s">
         <v>94</v>
       </c>
-      <c r="B36" s="121"/>
+      <c r="B36" s="124"/>
       <c r="C36" s="31"/>
       <c r="D36" s="24"/>
       <c r="E36" s="24"/>
       <c r="F36" s="30"/>
       <c r="G36" s="30"/>
-      <c r="H36" s="127"/>
+      <c r="H36" s="121"/>
     </row>
     <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="30" t="s">
@@ -10571,13 +14405,13 @@
       <c r="G37" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="H37" s="126"/>
+      <c r="H37" s="122"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="114" t="s">
+      <c r="A38" s="111" t="s">
         <v>91</v>
       </c>
-      <c r="B38" s="115"/>
+      <c r="B38" s="112"/>
       <c r="C38" s="31"/>
       <c r="D38" s="24"/>
       <c r="E38" s="24"/>
@@ -10614,10 +14448,10 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="114" t="s">
+      <c r="A40" s="111" t="s">
         <v>91</v>
       </c>
-      <c r="B40" s="115"/>
+      <c r="B40" s="112"/>
       <c r="C40" s="31"/>
       <c r="D40" s="24"/>
       <c r="E40" s="24"/>
@@ -10649,21 +14483,21 @@
       <c r="G41" s="30" t="s">
         <v>330</v>
       </c>
-      <c r="H41" s="125" t="s">
+      <c r="H41" s="120" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="120" t="s">
+      <c r="A42" s="123" t="s">
         <v>94</v>
       </c>
-      <c r="B42" s="121"/>
+      <c r="B42" s="124"/>
       <c r="C42" s="31"/>
       <c r="D42" s="24"/>
       <c r="E42" s="24"/>
       <c r="F42" s="30"/>
       <c r="G42" s="30"/>
-      <c r="H42" s="127"/>
+      <c r="H42" s="121"/>
     </row>
     <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
@@ -10687,7 +14521,7 @@
       <c r="G43" s="30" t="s">
         <v>332</v>
       </c>
-      <c r="H43" s="126"/>
+      <c r="H43" s="122"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
@@ -10869,11 +14703,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="H41:H43"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="A16:B16"/>
@@ -10890,6 +14719,11 @@
     <mergeCell ref="H47:H50"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A36:B36"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="H41:H43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -11171,10 +15005,10 @@
       <c r="H13" s="26"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="122" t="s">
+      <c r="A14" s="125" t="s">
         <v>260</v>
       </c>
-      <c r="B14" s="124"/>
+      <c r="B14" s="127"/>
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
       <c r="E14" s="24"/>
@@ -11204,7 +15038,7 @@
       <c r="G15" s="30" t="s">
         <v>349</v>
       </c>
-      <c r="H15" s="125" t="s">
+      <c r="H15" s="120" t="s">
         <v>512</v>
       </c>
     </row>
@@ -11230,7 +15064,7 @@
       <c r="G16" s="30" t="s">
         <v>349</v>
       </c>
-      <c r="H16" s="127"/>
+      <c r="H16" s="121"/>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
@@ -11254,7 +15088,7 @@
       <c r="G17" s="30" t="s">
         <v>349</v>
       </c>
-      <c r="H17" s="127"/>
+      <c r="H17" s="121"/>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
@@ -11278,7 +15112,7 @@
       <c r="G18" s="30" t="s">
         <v>349</v>
       </c>
-      <c r="H18" s="127"/>
+      <c r="H18" s="121"/>
     </row>
     <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
@@ -11302,7 +15136,7 @@
       <c r="G19" s="30" t="s">
         <v>349</v>
       </c>
-      <c r="H19" s="126"/>
+      <c r="H19" s="122"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
@@ -11463,10 +15297,10 @@
       <c r="H27" s="119"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="114" t="s">
+      <c r="A28" s="111" t="s">
         <v>360</v>
       </c>
-      <c r="B28" s="115"/>
+      <c r="B28" s="112"/>
       <c r="C28" s="31"/>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
@@ -11633,10 +15467,10 @@
       <c r="H35" s="128"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="114" t="s">
+      <c r="A36" s="111" t="s">
         <v>366</v>
       </c>
-      <c r="B36" s="115"/>
+      <c r="B36" s="112"/>
       <c r="C36" s="88"/>
       <c r="D36" s="40"/>
       <c r="E36" s="40"/>
@@ -11716,8 +15550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11897,10 +15731,10 @@
       <c r="H9" s="26"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="122" t="s">
+      <c r="A10" s="125" t="s">
         <v>278</v>
       </c>
-      <c r="B10" s="124"/>
+      <c r="B10" s="127"/>
       <c r="C10" s="24"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
@@ -11930,7 +15764,7 @@
       <c r="G11" s="30" t="s">
         <v>374</v>
       </c>
-      <c r="H11" s="125" t="s">
+      <c r="H11" s="120" t="s">
         <v>372</v>
       </c>
     </row>
@@ -11956,7 +15790,7 @@
       <c r="G12" s="30" t="s">
         <v>374</v>
       </c>
-      <c r="H12" s="127"/>
+      <c r="H12" s="121"/>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
@@ -11980,19 +15814,19 @@
       <c r="G13" s="30" t="s">
         <v>374</v>
       </c>
-      <c r="H13" s="127"/>
+      <c r="H13" s="121"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="109" t="s">
+      <c r="A14" s="110" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="109"/>
+      <c r="B14" s="110"/>
       <c r="C14" s="31"/>
       <c r="D14" s="24"/>
       <c r="E14" s="24"/>
       <c r="F14" s="30"/>
       <c r="G14" s="30"/>
-      <c r="H14" s="127"/>
+      <c r="H14" s="121"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
@@ -12016,7 +15850,7 @@
       <c r="G15" s="30" t="s">
         <v>379</v>
       </c>
-      <c r="H15" s="127"/>
+      <c r="H15" s="121"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
@@ -12040,7 +15874,7 @@
       <c r="G16" s="30" t="s">
         <v>379</v>
       </c>
-      <c r="H16" s="127"/>
+      <c r="H16" s="121"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
@@ -12064,7 +15898,7 @@
       <c r="G17" s="30" t="s">
         <v>379</v>
       </c>
-      <c r="H17" s="126"/>
+      <c r="H17" s="122"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
@@ -12136,7 +15970,7 @@
       <c r="G21" s="30" t="s">
         <v>385</v>
       </c>
-      <c r="H21" s="116" t="s">
+      <c r="H21" s="113" t="s">
         <v>390</v>
       </c>
     </row>
@@ -12162,7 +15996,7 @@
       <c r="G22" s="30" t="s">
         <v>385</v>
       </c>
-      <c r="H22" s="116"/>
+      <c r="H22" s="113"/>
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
@@ -12186,19 +16020,19 @@
       <c r="G23" s="30" t="s">
         <v>385</v>
       </c>
-      <c r="H23" s="116"/>
+      <c r="H23" s="113"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="114" t="s">
+      <c r="A24" s="111" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="115"/>
+      <c r="B24" s="112"/>
       <c r="C24" s="31"/>
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
       <c r="F24" s="30"/>
       <c r="G24" s="30"/>
-      <c r="H24" s="116"/>
+      <c r="H24" s="113"/>
     </row>
     <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
@@ -12222,7 +16056,7 @@
       <c r="G25" s="30" t="s">
         <v>392</v>
       </c>
-      <c r="H25" s="116"/>
+      <c r="H25" s="113"/>
     </row>
     <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
@@ -12246,7 +16080,7 @@
       <c r="G26" s="30" t="s">
         <v>392</v>
       </c>
-      <c r="H26" s="116"/>
+      <c r="H26" s="113"/>
     </row>
     <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
@@ -12270,19 +16104,19 @@
       <c r="G27" s="30" t="s">
         <v>392</v>
       </c>
-      <c r="H27" s="116"/>
+      <c r="H27" s="113"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="114" t="s">
+      <c r="A28" s="111" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="115"/>
+      <c r="B28" s="112"/>
       <c r="C28" s="31"/>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
       <c r="F28" s="30"/>
       <c r="G28" s="30"/>
-      <c r="H28" s="116"/>
+      <c r="H28" s="113"/>
     </row>
     <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="30" t="s">
@@ -12306,7 +16140,7 @@
       <c r="G29" s="30" t="s">
         <v>394</v>
       </c>
-      <c r="H29" s="116"/>
+      <c r="H29" s="113"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
@@ -12330,7 +16164,7 @@
       <c r="G30" s="30" t="s">
         <v>394</v>
       </c>
-      <c r="H30" s="116"/>
+      <c r="H30" s="113"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="30" t="s">
@@ -12354,7 +16188,7 @@
       <c r="G31" s="30" t="s">
         <v>394</v>
       </c>
-      <c r="H31" s="116"/>
+      <c r="H31" s="113"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>

--- a/Documents/Emids HEDIS Doucments/HEDIS Metadata EOC.xlsx
+++ b/Documents/Emids HEDIS Doucments/HEDIS Metadata EOC.xlsx
@@ -3008,6 +3008,44 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3016,6 +3054,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3026,9 +3076,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3038,15 +3085,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3054,15 +3092,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3080,6 +3109,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3092,64 +3130,14 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3158,10 +3146,22 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3568,16 +3568,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -3896,16 +3896,16 @@
       <c r="H17" s="15"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="105" t="s">
+      <c r="A18" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="105"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="105"/>
+      <c r="B18" s="119"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="119"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
@@ -4066,10 +4066,10 @@
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="104" t="s">
+      <c r="A26" s="118" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="104"/>
+      <c r="B26" s="118"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="13"/>
@@ -4142,16 +4142,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="78" t="s">
@@ -4338,10 +4338,10 @@
       <c r="H11" s="26"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="129" t="s">
+      <c r="A12" s="143" t="s">
         <v>355</v>
       </c>
-      <c r="B12" s="130"/>
+      <c r="B12" s="144"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
@@ -4371,7 +4371,7 @@
       <c r="G13" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="117" t="s">
+      <c r="H13" s="131" t="s">
         <v>426</v>
       </c>
     </row>
@@ -4397,7 +4397,7 @@
       <c r="G14" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="117"/>
+      <c r="H14" s="131"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
@@ -4421,13 +4421,13 @@
       <c r="G15" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="117"/>
+      <c r="H15" s="131"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="110" t="s">
+      <c r="A16" s="123" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="110"/>
+      <c r="B16" s="123"/>
       <c r="C16" s="31" t="s">
         <v>23</v>
       </c>
@@ -4437,7 +4437,7 @@
       <c r="E16" s="24"/>
       <c r="F16" s="30"/>
       <c r="G16" s="30"/>
-      <c r="H16" s="117"/>
+      <c r="H16" s="131"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
@@ -4461,19 +4461,19 @@
       <c r="G17" s="30" t="s">
         <v>418</v>
       </c>
-      <c r="H17" s="117"/>
+      <c r="H17" s="131"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="123" t="s">
+      <c r="A18" s="134" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="124"/>
+      <c r="B18" s="135"/>
       <c r="C18" s="31"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
       <c r="F18" s="30"/>
       <c r="G18" s="30"/>
-      <c r="H18" s="117"/>
+      <c r="H18" s="131"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
@@ -4497,7 +4497,7 @@
       <c r="G19" s="30" t="s">
         <v>419</v>
       </c>
-      <c r="H19" s="117"/>
+      <c r="H19" s="131"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
@@ -4521,19 +4521,19 @@
       <c r="G20" s="30" t="s">
         <v>419</v>
       </c>
-      <c r="H20" s="117"/>
+      <c r="H20" s="131"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="111" t="s">
+      <c r="A21" s="128" t="s">
         <v>263</v>
       </c>
-      <c r="B21" s="112"/>
+      <c r="B21" s="129"/>
       <c r="C21" s="31"/>
       <c r="D21" s="24"/>
       <c r="E21" s="24"/>
       <c r="F21" s="30"/>
       <c r="G21" s="30"/>
-      <c r="H21" s="117"/>
+      <c r="H21" s="131"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
@@ -4557,7 +4557,7 @@
       <c r="G22" s="30" t="s">
         <v>422</v>
       </c>
-      <c r="H22" s="117"/>
+      <c r="H22" s="131"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
@@ -4581,13 +4581,13 @@
       <c r="G23" s="30" t="s">
         <v>422</v>
       </c>
-      <c r="H23" s="117"/>
+      <c r="H23" s="131"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="110" t="s">
+      <c r="A24" s="123" t="s">
         <v>425</v>
       </c>
-      <c r="B24" s="110"/>
+      <c r="B24" s="123"/>
       <c r="C24" s="31"/>
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
@@ -4617,7 +4617,7 @@
       <c r="G25" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="H25" s="117" t="s">
+      <c r="H25" s="131" t="s">
         <v>427</v>
       </c>
     </row>
@@ -4643,7 +4643,7 @@
       <c r="G26" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="117"/>
+      <c r="H26" s="131"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
@@ -4667,19 +4667,19 @@
       <c r="G27" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="H27" s="117"/>
+      <c r="H27" s="131"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="123" t="s">
+      <c r="A28" s="134" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="124"/>
+      <c r="B28" s="135"/>
       <c r="C28" s="31"/>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
       <c r="F28" s="30"/>
       <c r="G28" s="30"/>
-      <c r="H28" s="117"/>
+      <c r="H28" s="131"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="30" t="s">
@@ -4703,7 +4703,7 @@
       <c r="G29" s="30" t="s">
         <v>419</v>
       </c>
-      <c r="H29" s="117"/>
+      <c r="H29" s="131"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
@@ -4727,19 +4727,19 @@
       <c r="G30" s="30" t="s">
         <v>419</v>
       </c>
-      <c r="H30" s="117"/>
+      <c r="H30" s="131"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="110" t="s">
+      <c r="A31" s="123" t="s">
         <v>263</v>
       </c>
-      <c r="B31" s="110"/>
+      <c r="B31" s="123"/>
       <c r="C31" s="31"/>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
       <c r="F31" s="30"/>
       <c r="G31" s="30"/>
-      <c r="H31" s="117"/>
+      <c r="H31" s="131"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="30" t="s">
@@ -4763,7 +4763,7 @@
       <c r="G32" s="30" t="s">
         <v>422</v>
       </c>
-      <c r="H32" s="117"/>
+      <c r="H32" s="131"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="30" t="s">
@@ -4787,13 +4787,13 @@
       <c r="G33" s="30" t="s">
         <v>422</v>
       </c>
-      <c r="H33" s="117"/>
+      <c r="H33" s="131"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="111" t="s">
+      <c r="A34" s="128" t="s">
         <v>429</v>
       </c>
-      <c r="B34" s="112"/>
+      <c r="B34" s="129"/>
       <c r="C34" s="31"/>
       <c r="D34" s="24"/>
       <c r="E34" s="24"/>
@@ -4822,10 +4822,10 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="111" t="s">
+      <c r="A36" s="128" t="s">
         <v>486</v>
       </c>
-      <c r="B36" s="112"/>
+      <c r="B36" s="129"/>
       <c r="C36" s="31"/>
       <c r="D36" s="24"/>
       <c r="E36" s="24"/>
@@ -4852,10 +4852,10 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="110" t="s">
+      <c r="A38" s="123" t="s">
         <v>490</v>
       </c>
-      <c r="B38" s="110"/>
+      <c r="B38" s="123"/>
       <c r="C38" s="31"/>
       <c r="D38" s="24"/>
       <c r="E38" s="24"/>
@@ -4882,10 +4882,10 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="111" t="s">
+      <c r="A40" s="128" t="s">
         <v>493</v>
       </c>
-      <c r="B40" s="112"/>
+      <c r="B40" s="129"/>
       <c r="C40" s="31"/>
       <c r="D40" s="24"/>
       <c r="E40" s="24"/>
@@ -4922,16 +4922,16 @@
       <c r="H42" s="4"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="132" t="s">
+      <c r="A43" s="148" t="s">
         <v>22</v>
       </c>
-      <c r="B43" s="132"/>
-      <c r="C43" s="132"/>
-      <c r="D43" s="132"/>
-      <c r="E43" s="132"/>
-      <c r="F43" s="132"/>
-      <c r="G43" s="132"/>
-      <c r="H43" s="132"/>
+      <c r="B43" s="148"/>
+      <c r="C43" s="148"/>
+      <c r="D43" s="148"/>
+      <c r="E43" s="148"/>
+      <c r="F43" s="148"/>
+      <c r="G43" s="148"/>
+      <c r="H43" s="148"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="78" t="s">
@@ -5021,10 +5021,10 @@
       <c r="G47" s="17"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="104" t="s">
+      <c r="A48" s="118" t="s">
         <v>32</v>
       </c>
-      <c r="B48" s="104"/>
+      <c r="B48" s="118"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="E48" s="13"/>
@@ -5072,10 +5072,10 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="134" t="s">
+      <c r="A58" s="147" t="s">
         <v>432</v>
       </c>
-      <c r="B58" s="134"/>
+      <c r="B58" s="147"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="96" t="s">
@@ -5086,7 +5086,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="133" t="s">
+      <c r="A60" s="146" t="s">
         <v>435</v>
       </c>
       <c r="B60" s="98" t="s">
@@ -5094,7 +5094,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="133"/>
+      <c r="A61" s="146"/>
       <c r="B61" s="98" t="s">
         <v>437</v>
       </c>
@@ -5108,7 +5108,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="133" t="s">
+      <c r="A63" s="146" t="s">
         <v>440</v>
       </c>
       <c r="B63" s="98" t="s">
@@ -5116,13 +5116,13 @@
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="133"/>
+      <c r="A64" s="146"/>
       <c r="B64" s="98" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="133"/>
+      <c r="A65" s="146"/>
       <c r="B65" s="100" t="s">
         <v>443</v>
       </c>
@@ -5144,7 +5144,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="133" t="s">
+      <c r="A68" s="146" t="s">
         <v>448</v>
       </c>
       <c r="B68" s="98" t="s">
@@ -5152,31 +5152,31 @@
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="133"/>
+      <c r="A69" s="146"/>
       <c r="B69" s="98" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="133"/>
+      <c r="A70" s="146"/>
       <c r="B70" s="98" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="133"/>
+      <c r="A71" s="146"/>
       <c r="B71" s="98" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="133"/>
+      <c r="A72" s="146"/>
       <c r="B72" s="98" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="133"/>
+      <c r="A73" s="146"/>
       <c r="B73" s="98" t="s">
         <v>454</v>
       </c>
@@ -5190,7 +5190,7 @@
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="133" t="s">
+      <c r="A75" s="146" t="s">
         <v>457</v>
       </c>
       <c r="B75" s="98" t="s">
@@ -5198,13 +5198,13 @@
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="133"/>
+      <c r="A76" s="146"/>
       <c r="B76" s="98" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="133"/>
+      <c r="A77" s="146"/>
       <c r="B77" s="100" t="s">
         <v>460</v>
       </c>
@@ -5218,7 +5218,7 @@
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="133" t="s">
+      <c r="A79" s="146" t="s">
         <v>463</v>
       </c>
       <c r="B79" s="98" t="s">
@@ -5226,25 +5226,25 @@
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="133"/>
+      <c r="A80" s="146"/>
       <c r="B80" s="98" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="133"/>
+      <c r="A81" s="146"/>
       <c r="B81" s="98" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="133"/>
+      <c r="A82" s="146"/>
       <c r="B82" s="98" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="133" t="s">
+      <c r="A83" s="146" t="s">
         <v>468</v>
       </c>
       <c r="B83" s="98" t="s">
@@ -5252,7 +5252,7 @@
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="133"/>
+      <c r="A84" s="146"/>
       <c r="B84" s="98" t="s">
         <v>470</v>
       </c>
@@ -5272,7 +5272,7 @@
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="133" t="s">
+      <c r="A87" s="146" t="s">
         <v>474</v>
       </c>
       <c r="B87" s="98" t="s">
@@ -5280,19 +5280,19 @@
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="133"/>
+      <c r="A88" s="146"/>
       <c r="B88" s="98" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="133"/>
+      <c r="A89" s="146"/>
       <c r="B89" s="100" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="133" t="s">
+      <c r="A90" s="146" t="s">
         <v>478</v>
       </c>
       <c r="B90" s="98" t="s">
@@ -5300,49 +5300,37 @@
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="133"/>
+      <c r="A91" s="146"/>
       <c r="B91" s="98" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="133"/>
+      <c r="A92" s="146"/>
       <c r="B92" s="98" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="133"/>
+      <c r="A93" s="146"/>
       <c r="B93" s="98" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="133"/>
+      <c r="A94" s="146"/>
       <c r="B94" s="98" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="133"/>
+      <c r="A95" s="146"/>
       <c r="B95" s="98" t="s">
         <v>484</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A87:A89"/>
-    <mergeCell ref="A90:A95"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A68:A73"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="A48:B48"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A16:B16"/>
@@ -5356,6 +5344,18 @@
     <mergeCell ref="H13:H23"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="A90:A95"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A68:A73"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="A48:B48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -5390,49 +5390,49 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" style="135" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78.28515625" style="135" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="135" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="135" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" style="135" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="135" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.28515625" style="135" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="54" style="135" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="135"/>
+    <col min="1" max="1" width="33.42578125" style="104" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.28515625" style="104" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="104" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="104" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="104" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="104" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.28515625" style="104" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="54" style="104" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="104"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="136" t="s">
+      <c r="A2" s="105" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="136" t="s">
+      <c r="C2" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="136" t="s">
+      <c r="D2" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="136" t="s">
+      <c r="E2" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="136" t="s">
+      <c r="F2" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="136" t="s">
+      <c r="G2" s="105" t="s">
         <v>16</v>
       </c>
       <c r="H2" s="10" t="s">
@@ -5461,7 +5461,7 @@
       <c r="A4" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="137" t="s">
+      <c r="B4" s="106" t="s">
         <v>519</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -5509,7 +5509,7 @@
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="138"/>
+      <c r="H6" s="107"/>
     </row>
     <row r="7" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
@@ -5533,7 +5533,7 @@
       <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="137" t="s">
+      <c r="B8" s="106" t="s">
         <v>494</v>
       </c>
       <c r="C8" s="13" t="s">
@@ -5566,10 +5566,10 @@
       <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="139" t="s">
+      <c r="A10" s="151" t="s">
         <v>355</v>
       </c>
-      <c r="B10" s="139"/>
+      <c r="B10" s="151"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -5580,7 +5580,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="140" t="s">
+      <c r="A11" s="108" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="12" t="s">
@@ -5595,10 +5595,10 @@
       <c r="E11" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="140" t="s">
+      <c r="F11" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="140" t="s">
+      <c r="G11" s="108" t="s">
         <v>12</v>
       </c>
       <c r="H11" s="17"/>
@@ -5652,10 +5652,10 @@
       <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="141" t="s">
+      <c r="A14" s="109" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="141"/>
+      <c r="B14" s="109"/>
       <c r="C14" s="18" t="s">
         <v>23</v>
       </c>
@@ -5692,10 +5692,10 @@
       <c r="H15" s="17"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="142" t="s">
+      <c r="A16" s="154" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="142"/>
+      <c r="B16" s="154"/>
       <c r="C16" s="18"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
@@ -5725,7 +5725,7 @@
       <c r="G17" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="H17" s="147" t="s">
+      <c r="H17" s="152" t="s">
         <v>533</v>
       </c>
     </row>
@@ -5751,22 +5751,22 @@
       <c r="G18" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="H18" s="147"/>
+      <c r="H18" s="152"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="141" t="s">
+      <c r="A19" s="109" t="s">
         <v>94</v>
       </c>
-      <c r="B19" s="141"/>
+      <c r="B19" s="109"/>
       <c r="C19" s="18"/>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
-      <c r="H19" s="147"/>
+      <c r="H19" s="152"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="140" t="s">
+      <c r="A20" s="108" t="s">
         <v>522</v>
       </c>
       <c r="B20" s="12" t="s">
@@ -5781,16 +5781,16 @@
       <c r="E20" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="140" t="s">
+      <c r="F20" s="108" t="s">
         <v>522</v>
       </c>
-      <c r="G20" s="140" t="s">
+      <c r="G20" s="108" t="s">
         <v>521</v>
       </c>
-      <c r="H20" s="147"/>
+      <c r="H20" s="152"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="140" t="s">
+      <c r="A21" s="108" t="s">
         <v>522</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -5805,25 +5805,25 @@
       <c r="E21" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F21" s="140" t="s">
+      <c r="F21" s="108" t="s">
         <v>522</v>
       </c>
-      <c r="G21" s="140" t="s">
+      <c r="G21" s="108" t="s">
         <v>521</v>
       </c>
-      <c r="H21" s="147"/>
+      <c r="H21" s="152"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="141" t="s">
+      <c r="A22" s="109" t="s">
         <v>91</v>
       </c>
-      <c r="B22" s="141"/>
+      <c r="B22" s="109"/>
       <c r="C22" s="18"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
-      <c r="H22" s="147"/>
+      <c r="H22" s="152"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
@@ -5847,7 +5847,7 @@
       <c r="G23" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="H23" s="147"/>
+      <c r="H23" s="152"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
@@ -5871,10 +5871,10 @@
       <c r="G24" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="H24" s="147"/>
+      <c r="H24" s="152"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="143" t="s">
+      <c r="A25" s="110" t="s">
         <v>94</v>
       </c>
       <c r="B25" s="12"/>
@@ -5883,13 +5883,13 @@
       <c r="E25" s="13"/>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
-      <c r="H25" s="147"/>
+      <c r="H25" s="152"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="144" t="s">
+      <c r="A26" s="111" t="s">
         <v>525</v>
       </c>
-      <c r="B26" s="144" t="s">
+      <c r="B26" s="111" t="s">
         <v>527</v>
       </c>
       <c r="C26" s="18" t="s">
@@ -5901,19 +5901,19 @@
       <c r="E26" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="F26" s="140" t="s">
+      <c r="F26" s="108" t="s">
         <v>525</v>
       </c>
-      <c r="G26" s="140" t="s">
+      <c r="G26" s="108" t="s">
         <v>526</v>
       </c>
-      <c r="H26" s="147"/>
+      <c r="H26" s="152"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="144" t="s">
+      <c r="A27" s="111" t="s">
         <v>525</v>
       </c>
-      <c r="B27" s="144" t="s">
+      <c r="B27" s="111" t="s">
         <v>528</v>
       </c>
       <c r="C27" s="18" t="s">
@@ -5925,25 +5925,25 @@
       <c r="E27" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F27" s="140" t="s">
+      <c r="F27" s="108" t="s">
         <v>525</v>
       </c>
-      <c r="G27" s="140" t="s">
+      <c r="G27" s="108" t="s">
         <v>526</v>
       </c>
-      <c r="H27" s="147"/>
+      <c r="H27" s="152"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="141" t="s">
+      <c r="A28" s="109" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="141"/>
+      <c r="B28" s="109"/>
       <c r="C28" s="18"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
-      <c r="H28" s="147"/>
+      <c r="H28" s="152"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
@@ -5967,7 +5967,7 @@
       <c r="G29" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="H29" s="147"/>
+      <c r="H29" s="152"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
@@ -5991,24 +5991,24 @@
       <c r="G30" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="H30" s="147"/>
+      <c r="H30" s="152"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="145" t="s">
+      <c r="A31" s="112" t="s">
         <v>94</v>
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
-      <c r="H31" s="147"/>
+      <c r="H31" s="152"/>
     </row>
     <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="140" t="s">
+      <c r="A32" s="108" t="s">
         <v>529</v>
       </c>
-      <c r="B32" s="135" t="s">
+      <c r="B32" s="104" t="s">
         <v>531</v>
       </c>
-      <c r="C32" s="146" t="s">
+      <c r="C32" s="113" t="s">
         <v>23</v>
       </c>
       <c r="D32" s="13" t="s">
@@ -6017,22 +6017,22 @@
       <c r="E32" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="F32" s="140" t="s">
+      <c r="F32" s="108" t="s">
         <v>529</v>
       </c>
-      <c r="G32" s="140" t="s">
+      <c r="G32" s="108" t="s">
         <v>530</v>
       </c>
-      <c r="H32" s="147"/>
+      <c r="H32" s="152"/>
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="140" t="s">
+      <c r="A33" s="108" t="s">
         <v>529</v>
       </c>
-      <c r="B33" s="135" t="s">
+      <c r="B33" s="104" t="s">
         <v>532</v>
       </c>
-      <c r="C33" s="146" t="s">
+      <c r="C33" s="113" t="s">
         <v>23</v>
       </c>
       <c r="D33" s="13" t="s">
@@ -6041,42 +6041,42 @@
       <c r="E33" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F33" s="140" t="s">
+      <c r="F33" s="108" t="s">
         <v>529</v>
       </c>
-      <c r="G33" s="140" t="s">
+      <c r="G33" s="108" t="s">
         <v>530</v>
       </c>
-      <c r="H33" s="147"/>
+      <c r="H33" s="152"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D34" s="13"/>
       <c r="E34" s="13"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="148" t="s">
+      <c r="A35" s="153" t="s">
         <v>91</v>
       </c>
-      <c r="B35" s="148"/>
+      <c r="B35" s="153"/>
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="139" t="s">
+      <c r="A36" s="151" t="s">
         <v>534</v>
       </c>
-      <c r="B36" s="139"/>
+      <c r="B36" s="151"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="140" t="s">
+      <c r="A37" s="108" t="s">
         <v>535</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="146" t="s">
+      <c r="C37" s="113" t="s">
         <v>23</v>
       </c>
       <c r="D37" s="13" t="s">
@@ -6085,21 +6085,21 @@
       <c r="E37" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F37" s="140" t="s">
+      <c r="F37" s="108" t="s">
         <v>535</v>
       </c>
-      <c r="G37" s="140" t="s">
+      <c r="G37" s="108" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="140" t="s">
+      <c r="A38" s="108" t="s">
         <v>537</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="135" t="s">
+      <c r="C38" s="104" t="s">
         <v>23</v>
       </c>
       <c r="D38" s="13" t="s">
@@ -6108,21 +6108,21 @@
       <c r="E38" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="F38" s="140" t="s">
+      <c r="F38" s="108" t="s">
         <v>537</v>
       </c>
-      <c r="G38" s="140" t="s">
+      <c r="G38" s="108" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="140" t="s">
+      <c r="A39" s="108" t="s">
         <v>537</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="135" t="s">
+      <c r="C39" s="104" t="s">
         <v>23</v>
       </c>
       <c r="D39" s="13" t="s">
@@ -6131,23 +6131,23 @@
       <c r="E39" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F39" s="140" t="s">
+      <c r="F39" s="108" t="s">
         <v>537</v>
       </c>
-      <c r="G39" s="140" t="s">
+      <c r="G39" s="108" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="155"/>
-      <c r="B40" s="155" t="s">
+      <c r="A40" s="116"/>
+      <c r="B40" s="116" t="s">
         <v>539</v>
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="140" t="s">
+      <c r="A41" s="108" t="s">
         <v>522</v>
       </c>
       <c r="B41" s="12" t="s">
@@ -6162,18 +6162,18 @@
       <c r="E41" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="F41" s="140" t="s">
+      <c r="F41" s="108" t="s">
         <v>522</v>
       </c>
-      <c r="G41" s="140" t="s">
+      <c r="G41" s="108" t="s">
         <v>521</v>
       </c>
-      <c r="H41" s="153" t="s">
+      <c r="H41" s="149" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="140" t="s">
+      <c r="A42" s="108" t="s">
         <v>522</v>
       </c>
       <c r="B42" s="12" t="s">
@@ -6188,27 +6188,27 @@
       <c r="E42" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F42" s="140" t="s">
+      <c r="F42" s="108" t="s">
         <v>522</v>
       </c>
-      <c r="G42" s="140" t="s">
+      <c r="G42" s="108" t="s">
         <v>521</v>
       </c>
-      <c r="H42" s="154"/>
+      <c r="H42" s="150"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="149" t="s">
+      <c r="A43" s="114" t="s">
         <v>91</v>
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="13"/>
-      <c r="H43" s="154"/>
+      <c r="H43" s="150"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="144" t="s">
+      <c r="A44" s="111" t="s">
         <v>525</v>
       </c>
-      <c r="B44" s="144" t="s">
+      <c r="B44" s="111" t="s">
         <v>527</v>
       </c>
       <c r="C44" s="18" t="s">
@@ -6220,19 +6220,19 @@
       <c r="E44" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="F44" s="140" t="s">
+      <c r="F44" s="108" t="s">
         <v>525</v>
       </c>
-      <c r="G44" s="140" t="s">
+      <c r="G44" s="108" t="s">
         <v>526</v>
       </c>
-      <c r="H44" s="154"/>
+      <c r="H44" s="150"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="144" t="s">
+      <c r="A45" s="111" t="s">
         <v>525</v>
       </c>
-      <c r="B45" s="144" t="s">
+      <c r="B45" s="111" t="s">
         <v>528</v>
       </c>
       <c r="C45" s="18" t="s">
@@ -6244,30 +6244,30 @@
       <c r="E45" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F45" s="140" t="s">
+      <c r="F45" s="108" t="s">
         <v>525</v>
       </c>
-      <c r="G45" s="140" t="s">
+      <c r="G45" s="108" t="s">
         <v>526</v>
       </c>
-      <c r="H45" s="154"/>
+      <c r="H45" s="150"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="150" t="s">
+      <c r="A46" s="115" t="s">
         <v>91</v>
       </c>
       <c r="D46" s="13"/>
       <c r="E46" s="13"/>
-      <c r="H46" s="154"/>
+      <c r="H46" s="150"/>
     </row>
     <row r="47" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="140" t="s">
+      <c r="A47" s="108" t="s">
         <v>529</v>
       </c>
-      <c r="B47" s="135" t="s">
+      <c r="B47" s="104" t="s">
         <v>531</v>
       </c>
-      <c r="C47" s="146" t="s">
+      <c r="C47" s="113" t="s">
         <v>23</v>
       </c>
       <c r="D47" s="13" t="s">
@@ -6276,22 +6276,22 @@
       <c r="E47" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="F47" s="140" t="s">
+      <c r="F47" s="108" t="s">
         <v>529</v>
       </c>
-      <c r="G47" s="140" t="s">
+      <c r="G47" s="108" t="s">
         <v>530</v>
       </c>
-      <c r="H47" s="154"/>
+      <c r="H47" s="150"/>
     </row>
     <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="140" t="s">
+      <c r="A48" s="108" t="s">
         <v>529</v>
       </c>
-      <c r="B48" s="135" t="s">
+      <c r="B48" s="104" t="s">
         <v>532</v>
       </c>
-      <c r="C48" s="146" t="s">
+      <c r="C48" s="113" t="s">
         <v>23</v>
       </c>
       <c r="D48" s="13" t="s">
@@ -6300,13 +6300,13 @@
       <c r="E48" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F48" s="140" t="s">
+      <c r="F48" s="108" t="s">
         <v>529</v>
       </c>
-      <c r="G48" s="140" t="s">
+      <c r="G48" s="108" t="s">
         <v>530</v>
       </c>
-      <c r="H48" s="154"/>
+      <c r="H48" s="150"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D49" s="13"/>
@@ -6317,10 +6317,10 @@
       <c r="E50" s="13"/>
     </row>
     <row r="51" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="139" t="s">
+      <c r="A51" s="151" t="s">
         <v>425</v>
       </c>
-      <c r="B51" s="139"/>
+      <c r="B51" s="151"/>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
       <c r="E51" s="13"/>
@@ -6331,7 +6331,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="140" t="s">
+      <c r="A52" s="108" t="s">
         <v>11</v>
       </c>
       <c r="B52" s="12" t="s">
@@ -6346,10 +6346,10 @@
       <c r="E52" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F52" s="140" t="s">
+      <c r="F52" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="G52" s="140" t="s">
+      <c r="G52" s="108" t="s">
         <v>12</v>
       </c>
       <c r="H52" s="17"/>
@@ -6403,10 +6403,10 @@
       <c r="H54" s="17"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="141" t="s">
+      <c r="A55" s="109" t="s">
         <v>94</v>
       </c>
-      <c r="B55" s="141"/>
+      <c r="B55" s="109"/>
       <c r="C55" s="18" t="s">
         <v>23</v>
       </c>
@@ -6443,10 +6443,10 @@
       <c r="H56" s="17"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="142" t="s">
+      <c r="A57" s="154" t="s">
         <v>91</v>
       </c>
-      <c r="B57" s="142"/>
+      <c r="B57" s="154"/>
       <c r="C57" s="18"/>
       <c r="D57" s="13"/>
       <c r="E57" s="13"/>
@@ -6476,7 +6476,7 @@
       <c r="G58" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="H58" s="147" t="s">
+      <c r="H58" s="152" t="s">
         <v>533</v>
       </c>
     </row>
@@ -6502,22 +6502,22 @@
       <c r="G59" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="H59" s="147"/>
+      <c r="H59" s="152"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="141" t="s">
+      <c r="A60" s="109" t="s">
         <v>94</v>
       </c>
-      <c r="B60" s="141"/>
+      <c r="B60" s="109"/>
       <c r="C60" s="18"/>
       <c r="D60" s="13"/>
       <c r="E60" s="13"/>
       <c r="F60" s="17"/>
       <c r="G60" s="17"/>
-      <c r="H60" s="147"/>
+      <c r="H60" s="152"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="140" t="s">
+      <c r="A61" s="108" t="s">
         <v>522</v>
       </c>
       <c r="B61" s="12" t="s">
@@ -6532,16 +6532,16 @@
       <c r="E61" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="F61" s="140" t="s">
+      <c r="F61" s="108" t="s">
         <v>522</v>
       </c>
-      <c r="G61" s="140" t="s">
+      <c r="G61" s="108" t="s">
         <v>521</v>
       </c>
-      <c r="H61" s="147"/>
+      <c r="H61" s="152"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="140" t="s">
+      <c r="A62" s="108" t="s">
         <v>522</v>
       </c>
       <c r="B62" s="12" t="s">
@@ -6556,25 +6556,25 @@
       <c r="E62" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F62" s="140" t="s">
+      <c r="F62" s="108" t="s">
         <v>522</v>
       </c>
-      <c r="G62" s="140" t="s">
+      <c r="G62" s="108" t="s">
         <v>521</v>
       </c>
-      <c r="H62" s="147"/>
+      <c r="H62" s="152"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="141" t="s">
+      <c r="A63" s="109" t="s">
         <v>91</v>
       </c>
-      <c r="B63" s="141"/>
+      <c r="B63" s="109"/>
       <c r="C63" s="18"/>
       <c r="D63" s="13"/>
       <c r="E63" s="13"/>
       <c r="F63" s="17"/>
       <c r="G63" s="17"/>
-      <c r="H63" s="147"/>
+      <c r="H63" s="152"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="17" t="s">
@@ -6598,7 +6598,7 @@
       <c r="G64" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="H64" s="147"/>
+      <c r="H64" s="152"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="17" t="s">
@@ -6622,10 +6622,10 @@
       <c r="G65" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="H65" s="147"/>
+      <c r="H65" s="152"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="143" t="s">
+      <c r="A66" s="110" t="s">
         <v>94</v>
       </c>
       <c r="B66" s="12"/>
@@ -6634,13 +6634,13 @@
       <c r="E66" s="13"/>
       <c r="F66" s="16"/>
       <c r="G66" s="16"/>
-      <c r="H66" s="147"/>
+      <c r="H66" s="152"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="144" t="s">
+      <c r="A67" s="111" t="s">
         <v>525</v>
       </c>
-      <c r="B67" s="144" t="s">
+      <c r="B67" s="111" t="s">
         <v>527</v>
       </c>
       <c r="C67" s="18" t="s">
@@ -6652,19 +6652,19 @@
       <c r="E67" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="F67" s="140" t="s">
+      <c r="F67" s="108" t="s">
         <v>525</v>
       </c>
-      <c r="G67" s="140" t="s">
+      <c r="G67" s="108" t="s">
         <v>526</v>
       </c>
-      <c r="H67" s="147"/>
+      <c r="H67" s="152"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="144" t="s">
+      <c r="A68" s="111" t="s">
         <v>525</v>
       </c>
-      <c r="B68" s="144" t="s">
+      <c r="B68" s="111" t="s">
         <v>528</v>
       </c>
       <c r="C68" s="18" t="s">
@@ -6676,25 +6676,25 @@
       <c r="E68" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F68" s="140" t="s">
+      <c r="F68" s="108" t="s">
         <v>525</v>
       </c>
-      <c r="G68" s="140" t="s">
+      <c r="G68" s="108" t="s">
         <v>526</v>
       </c>
-      <c r="H68" s="147"/>
+      <c r="H68" s="152"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="141" t="s">
+      <c r="A69" s="109" t="s">
         <v>91</v>
       </c>
-      <c r="B69" s="141"/>
+      <c r="B69" s="109"/>
       <c r="C69" s="18"/>
       <c r="D69" s="13"/>
       <c r="E69" s="13"/>
       <c r="F69" s="17"/>
       <c r="G69" s="17"/>
-      <c r="H69" s="147"/>
+      <c r="H69" s="152"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="17" t="s">
@@ -6718,7 +6718,7 @@
       <c r="G70" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="H70" s="147"/>
+      <c r="H70" s="152"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="17" t="s">
@@ -6742,24 +6742,24 @@
       <c r="G71" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="H71" s="147"/>
+      <c r="H71" s="152"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="145" t="s">
+      <c r="A72" s="112" t="s">
         <v>94</v>
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="13"/>
-      <c r="H72" s="147"/>
+      <c r="H72" s="152"/>
     </row>
     <row r="73" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="140" t="s">
+      <c r="A73" s="108" t="s">
         <v>529</v>
       </c>
-      <c r="B73" s="135" t="s">
+      <c r="B73" s="104" t="s">
         <v>531</v>
       </c>
-      <c r="C73" s="146" t="s">
+      <c r="C73" s="113" t="s">
         <v>23</v>
       </c>
       <c r="D73" s="13" t="s">
@@ -6768,22 +6768,22 @@
       <c r="E73" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="F73" s="140" t="s">
+      <c r="F73" s="108" t="s">
         <v>529</v>
       </c>
-      <c r="G73" s="140" t="s">
+      <c r="G73" s="108" t="s">
         <v>530</v>
       </c>
-      <c r="H73" s="147"/>
+      <c r="H73" s="152"/>
     </row>
     <row r="74" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="140" t="s">
+      <c r="A74" s="108" t="s">
         <v>529</v>
       </c>
-      <c r="B74" s="135" t="s">
+      <c r="B74" s="104" t="s">
         <v>532</v>
       </c>
-      <c r="C74" s="146" t="s">
+      <c r="C74" s="113" t="s">
         <v>23</v>
       </c>
       <c r="D74" s="13" t="s">
@@ -6792,42 +6792,42 @@
       <c r="E74" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F74" s="140" t="s">
+      <c r="F74" s="108" t="s">
         <v>529</v>
       </c>
-      <c r="G74" s="140" t="s">
+      <c r="G74" s="108" t="s">
         <v>530</v>
       </c>
-      <c r="H74" s="147"/>
+      <c r="H74" s="152"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D75" s="13"/>
       <c r="E75" s="13"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="148" t="s">
+      <c r="A76" s="153" t="s">
         <v>91</v>
       </c>
-      <c r="B76" s="148"/>
+      <c r="B76" s="153"/>
       <c r="D76" s="13"/>
       <c r="E76" s="13"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="139" t="s">
+      <c r="A77" s="151" t="s">
         <v>534</v>
       </c>
-      <c r="B77" s="139"/>
+      <c r="B77" s="151"/>
       <c r="D77" s="13"/>
       <c r="E77" s="13"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="140" t="s">
+      <c r="A78" s="108" t="s">
         <v>535</v>
       </c>
       <c r="B78" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C78" s="146" t="s">
+      <c r="C78" s="113" t="s">
         <v>23</v>
       </c>
       <c r="D78" s="13" t="s">
@@ -6836,21 +6836,21 @@
       <c r="E78" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F78" s="140" t="s">
+      <c r="F78" s="108" t="s">
         <v>535</v>
       </c>
-      <c r="G78" s="140" t="s">
+      <c r="G78" s="108" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="140" t="s">
+      <c r="A79" s="108" t="s">
         <v>537</v>
       </c>
       <c r="B79" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C79" s="135" t="s">
+      <c r="C79" s="104" t="s">
         <v>23</v>
       </c>
       <c r="D79" s="13" t="s">
@@ -6859,21 +6859,21 @@
       <c r="E79" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="F79" s="140" t="s">
+      <c r="F79" s="108" t="s">
         <v>537</v>
       </c>
-      <c r="G79" s="140" t="s">
+      <c r="G79" s="108" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="140" t="s">
+      <c r="A80" s="108" t="s">
         <v>537</v>
       </c>
       <c r="B80" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C80" s="135" t="s">
+      <c r="C80" s="104" t="s">
         <v>23</v>
       </c>
       <c r="D80" s="13" t="s">
@@ -6882,23 +6882,23 @@
       <c r="E80" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F80" s="140" t="s">
+      <c r="F80" s="108" t="s">
         <v>537</v>
       </c>
-      <c r="G80" s="140" t="s">
+      <c r="G80" s="108" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="155"/>
-      <c r="B81" s="155" t="s">
+      <c r="A81" s="116"/>
+      <c r="B81" s="116" t="s">
         <v>539</v>
       </c>
       <c r="D81" s="13"/>
       <c r="E81" s="13"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="140" t="s">
+      <c r="A82" s="108" t="s">
         <v>522</v>
       </c>
       <c r="B82" s="12" t="s">
@@ -6913,18 +6913,18 @@
       <c r="E82" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="F82" s="140" t="s">
+      <c r="F82" s="108" t="s">
         <v>522</v>
       </c>
-      <c r="G82" s="140" t="s">
+      <c r="G82" s="108" t="s">
         <v>521</v>
       </c>
-      <c r="H82" s="153" t="s">
+      <c r="H82" s="149" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="140" t="s">
+      <c r="A83" s="108" t="s">
         <v>522</v>
       </c>
       <c r="B83" s="12" t="s">
@@ -6939,27 +6939,27 @@
       <c r="E83" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F83" s="140" t="s">
+      <c r="F83" s="108" t="s">
         <v>522</v>
       </c>
-      <c r="G83" s="140" t="s">
+      <c r="G83" s="108" t="s">
         <v>521</v>
       </c>
-      <c r="H83" s="154"/>
+      <c r="H83" s="150"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="149" t="s">
+      <c r="A84" s="114" t="s">
         <v>91</v>
       </c>
       <c r="D84" s="13"/>
       <c r="E84" s="13"/>
-      <c r="H84" s="154"/>
+      <c r="H84" s="150"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="144" t="s">
+      <c r="A85" s="111" t="s">
         <v>525</v>
       </c>
-      <c r="B85" s="144" t="s">
+      <c r="B85" s="111" t="s">
         <v>527</v>
       </c>
       <c r="C85" s="18" t="s">
@@ -6971,19 +6971,19 @@
       <c r="E85" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="F85" s="140" t="s">
+      <c r="F85" s="108" t="s">
         <v>525</v>
       </c>
-      <c r="G85" s="140" t="s">
+      <c r="G85" s="108" t="s">
         <v>526</v>
       </c>
-      <c r="H85" s="154"/>
+      <c r="H85" s="150"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="144" t="s">
+      <c r="A86" s="111" t="s">
         <v>525</v>
       </c>
-      <c r="B86" s="144" t="s">
+      <c r="B86" s="111" t="s">
         <v>528</v>
       </c>
       <c r="C86" s="18" t="s">
@@ -6995,30 +6995,30 @@
       <c r="E86" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F86" s="140" t="s">
+      <c r="F86" s="108" t="s">
         <v>525</v>
       </c>
-      <c r="G86" s="140" t="s">
+      <c r="G86" s="108" t="s">
         <v>526</v>
       </c>
-      <c r="H86" s="154"/>
+      <c r="H86" s="150"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="150" t="s">
+      <c r="A87" s="115" t="s">
         <v>91</v>
       </c>
       <c r="D87" s="13"/>
       <c r="E87" s="13"/>
-      <c r="H87" s="154"/>
+      <c r="H87" s="150"/>
     </row>
     <row r="88" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="140" t="s">
+      <c r="A88" s="108" t="s">
         <v>529</v>
       </c>
-      <c r="B88" s="135" t="s">
+      <c r="B88" s="104" t="s">
         <v>531</v>
       </c>
-      <c r="C88" s="146" t="s">
+      <c r="C88" s="113" t="s">
         <v>23</v>
       </c>
       <c r="D88" s="13" t="s">
@@ -7027,22 +7027,22 @@
       <c r="E88" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="F88" s="140" t="s">
+      <c r="F88" s="108" t="s">
         <v>529</v>
       </c>
-      <c r="G88" s="140" t="s">
+      <c r="G88" s="108" t="s">
         <v>530</v>
       </c>
-      <c r="H88" s="154"/>
+      <c r="H88" s="150"/>
     </row>
     <row r="89" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="140" t="s">
+      <c r="A89" s="108" t="s">
         <v>529</v>
       </c>
-      <c r="B89" s="135" t="s">
+      <c r="B89" s="104" t="s">
         <v>532</v>
       </c>
-      <c r="C89" s="146" t="s">
+      <c r="C89" s="113" t="s">
         <v>23</v>
       </c>
       <c r="D89" s="13" t="s">
@@ -7051,23 +7051,23 @@
       <c r="E89" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F89" s="140" t="s">
+      <c r="F89" s="108" t="s">
         <v>529</v>
       </c>
-      <c r="G89" s="140" t="s">
+      <c r="G89" s="108" t="s">
         <v>530</v>
       </c>
-      <c r="H89" s="154"/>
+      <c r="H89" s="150"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D90" s="13"/>
       <c r="E90" s="13"/>
     </row>
     <row r="91" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="139" t="s">
+      <c r="A91" s="151" t="s">
         <v>429</v>
       </c>
-      <c r="B91" s="139"/>
+      <c r="B91" s="151"/>
       <c r="C91" s="13"/>
       <c r="D91" s="13"/>
       <c r="E91" s="13"/>
@@ -7082,37 +7082,37 @@
       <c r="E92" s="13"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="105" t="s">
+      <c r="A93" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="B93" s="105"/>
-      <c r="C93" s="105"/>
-      <c r="D93" s="105"/>
-      <c r="E93" s="105"/>
-      <c r="F93" s="105"/>
-      <c r="G93" s="105"/>
-      <c r="H93" s="105"/>
+      <c r="B93" s="119"/>
+      <c r="C93" s="119"/>
+      <c r="D93" s="119"/>
+      <c r="E93" s="119"/>
+      <c r="F93" s="119"/>
+      <c r="G93" s="119"/>
+      <c r="H93" s="119"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="136" t="s">
+      <c r="A94" s="105" t="s">
         <v>17</v>
       </c>
       <c r="B94" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C94" s="136" t="s">
+      <c r="C94" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="D94" s="136" t="s">
+      <c r="D94" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="E94" s="136" t="s">
+      <c r="E94" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="F94" s="136" t="s">
+      <c r="F94" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="G94" s="136" t="s">
+      <c r="G94" s="105" t="s">
         <v>16</v>
       </c>
       <c r="H94" s="10" t="s">
@@ -7469,6 +7469,9 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="H82:H89"/>
     <mergeCell ref="A91:B91"/>
     <mergeCell ref="A93:H93"/>
@@ -7481,9 +7484,6 @@
     <mergeCell ref="A76:B76"/>
     <mergeCell ref="A77:B77"/>
     <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -7512,55 +7512,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" style="135" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78.28515625" style="135" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="135" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="135" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" style="135" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="135" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.28515625" style="135" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="54" style="135" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="135"/>
+    <col min="1" max="1" width="33.42578125" style="104" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.28515625" style="104" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="104" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="104" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="104" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="104" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.28515625" style="104" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="54" style="104" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="104"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="136" t="s">
+      <c r="A2" s="105" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="136" t="s">
+      <c r="C2" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="136" t="s">
+      <c r="D2" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="136" t="s">
+      <c r="E2" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="136" t="s">
+      <c r="F2" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="136" t="s">
+      <c r="G2" s="105" t="s">
         <v>16</v>
       </c>
       <c r="H2" s="10" t="s">
@@ -7589,7 +7589,7 @@
       <c r="A4" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="137" t="s">
+      <c r="B4" s="106" t="s">
         <v>550</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -7637,7 +7637,7 @@
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="138"/>
+      <c r="H6" s="107"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
@@ -7661,7 +7661,7 @@
       <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="137" t="s">
+      <c r="B8" s="106" t="s">
         <v>409</v>
       </c>
       <c r="C8" s="13" t="s">
@@ -7694,10 +7694,10 @@
       <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="139" t="s">
+      <c r="A10" s="151" t="s">
         <v>355</v>
       </c>
-      <c r="B10" s="139"/>
+      <c r="B10" s="151"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -7729,7 +7729,7 @@
       <c r="G11" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="H11" s="147" t="s">
+      <c r="H11" s="152" t="s">
         <v>533</v>
       </c>
     </row>
@@ -7755,22 +7755,22 @@
       <c r="G12" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="H12" s="147"/>
+      <c r="H12" s="152"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="141" t="s">
+      <c r="A13" s="109" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="141"/>
+      <c r="B13" s="109"/>
       <c r="C13" s="18"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
-      <c r="H13" s="147"/>
+      <c r="H13" s="152"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="140" t="s">
+      <c r="A14" s="108" t="s">
         <v>522</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -7785,16 +7785,16 @@
       <c r="E14" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="F14" s="140" t="s">
+      <c r="F14" s="108" t="s">
         <v>522</v>
       </c>
-      <c r="G14" s="140" t="s">
+      <c r="G14" s="108" t="s">
         <v>521</v>
       </c>
-      <c r="H14" s="147"/>
+      <c r="H14" s="152"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="140" t="s">
+      <c r="A15" s="108" t="s">
         <v>522</v>
       </c>
       <c r="B15" s="12" t="s">
@@ -7809,25 +7809,25 @@
       <c r="E15" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="140" t="s">
+      <c r="F15" s="108" t="s">
         <v>522</v>
       </c>
-      <c r="G15" s="140" t="s">
+      <c r="G15" s="108" t="s">
         <v>521</v>
       </c>
-      <c r="H15" s="147"/>
+      <c r="H15" s="152"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="141" t="s">
+      <c r="A16" s="109" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="141"/>
+      <c r="B16" s="109"/>
       <c r="C16" s="18"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
-      <c r="H16" s="147"/>
+      <c r="H16" s="152"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
@@ -7851,7 +7851,7 @@
       <c r="G17" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="H17" s="147"/>
+      <c r="H17" s="152"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
@@ -7875,10 +7875,10 @@
       <c r="G18" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="H18" s="147"/>
+      <c r="H18" s="152"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="143" t="s">
+      <c r="A19" s="110" t="s">
         <v>94</v>
       </c>
       <c r="B19" s="12"/>
@@ -7887,13 +7887,13 @@
       <c r="E19" s="13"/>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
-      <c r="H19" s="147"/>
+      <c r="H19" s="152"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="144" t="s">
+      <c r="A20" s="111" t="s">
         <v>525</v>
       </c>
-      <c r="B20" s="144" t="s">
+      <c r="B20" s="111" t="s">
         <v>527</v>
       </c>
       <c r="C20" s="18" t="s">
@@ -7905,19 +7905,19 @@
       <c r="E20" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="140" t="s">
+      <c r="F20" s="108" t="s">
         <v>525</v>
       </c>
-      <c r="G20" s="140" t="s">
+      <c r="G20" s="108" t="s">
         <v>526</v>
       </c>
-      <c r="H20" s="147"/>
+      <c r="H20" s="152"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="144" t="s">
+      <c r="A21" s="111" t="s">
         <v>525</v>
       </c>
-      <c r="B21" s="144" t="s">
+      <c r="B21" s="111" t="s">
         <v>528</v>
       </c>
       <c r="C21" s="18" t="s">
@@ -7929,25 +7929,25 @@
       <c r="E21" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F21" s="140" t="s">
+      <c r="F21" s="108" t="s">
         <v>525</v>
       </c>
-      <c r="G21" s="140" t="s">
+      <c r="G21" s="108" t="s">
         <v>526</v>
       </c>
-      <c r="H21" s="147"/>
+      <c r="H21" s="152"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="141" t="s">
+      <c r="A22" s="109" t="s">
         <v>91</v>
       </c>
-      <c r="B22" s="141"/>
+      <c r="B22" s="109"/>
       <c r="C22" s="18"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
-      <c r="H22" s="147"/>
+      <c r="H22" s="152"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
@@ -7971,7 +7971,7 @@
       <c r="G23" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="H23" s="147"/>
+      <c r="H23" s="152"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
@@ -7995,24 +7995,24 @@
       <c r="G24" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="H24" s="147"/>
+      <c r="H24" s="152"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="145" t="s">
+      <c r="A25" s="112" t="s">
         <v>94</v>
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
-      <c r="H25" s="147"/>
+      <c r="H25" s="152"/>
     </row>
     <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="140" t="s">
+      <c r="A26" s="108" t="s">
         <v>529</v>
       </c>
-      <c r="B26" s="135" t="s">
+      <c r="B26" s="104" t="s">
         <v>531</v>
       </c>
-      <c r="C26" s="146" t="s">
+      <c r="C26" s="113" t="s">
         <v>23</v>
       </c>
       <c r="D26" s="13" t="s">
@@ -8021,22 +8021,22 @@
       <c r="E26" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="F26" s="140" t="s">
+      <c r="F26" s="108" t="s">
         <v>529</v>
       </c>
-      <c r="G26" s="140" t="s">
+      <c r="G26" s="108" t="s">
         <v>530</v>
       </c>
-      <c r="H26" s="147"/>
+      <c r="H26" s="152"/>
     </row>
     <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="140" t="s">
+      <c r="A27" s="108" t="s">
         <v>529</v>
       </c>
-      <c r="B27" s="135" t="s">
+      <c r="B27" s="104" t="s">
         <v>532</v>
       </c>
-      <c r="C27" s="146" t="s">
+      <c r="C27" s="113" t="s">
         <v>23</v>
       </c>
       <c r="D27" s="13" t="s">
@@ -8045,42 +8045,42 @@
       <c r="E27" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F27" s="140" t="s">
+      <c r="F27" s="108" t="s">
         <v>529</v>
       </c>
-      <c r="G27" s="140" t="s">
+      <c r="G27" s="108" t="s">
         <v>530</v>
       </c>
-      <c r="H27" s="147"/>
+      <c r="H27" s="152"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="148" t="s">
+      <c r="A29" s="153" t="s">
         <v>94</v>
       </c>
-      <c r="B29" s="148"/>
+      <c r="B29" s="153"/>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="139" t="s">
+      <c r="A30" s="151" t="s">
         <v>534</v>
       </c>
-      <c r="B30" s="139"/>
+      <c r="B30" s="151"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="140" t="s">
+      <c r="A31" s="108" t="s">
         <v>535</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="146" t="s">
+      <c r="C31" s="113" t="s">
         <v>23</v>
       </c>
       <c r="D31" s="13" t="s">
@@ -8089,21 +8089,21 @@
       <c r="E31" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F31" s="140" t="s">
+      <c r="F31" s="108" t="s">
         <v>535</v>
       </c>
-      <c r="G31" s="140" t="s">
+      <c r="G31" s="108" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="140" t="s">
+      <c r="A32" s="108" t="s">
         <v>537</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="135" t="s">
+      <c r="C32" s="104" t="s">
         <v>23</v>
       </c>
       <c r="D32" s="13" t="s">
@@ -8112,21 +8112,21 @@
       <c r="E32" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="F32" s="140" t="s">
+      <c r="F32" s="108" t="s">
         <v>537</v>
       </c>
-      <c r="G32" s="140" t="s">
+      <c r="G32" s="108" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="140" t="s">
+      <c r="A33" s="108" t="s">
         <v>537</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="135" t="s">
+      <c r="C33" s="104" t="s">
         <v>23</v>
       </c>
       <c r="D33" s="13" t="s">
@@ -8135,23 +8135,23 @@
       <c r="E33" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F33" s="140" t="s">
+      <c r="F33" s="108" t="s">
         <v>537</v>
       </c>
-      <c r="G33" s="140" t="s">
+      <c r="G33" s="108" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="155"/>
-      <c r="B34" s="155" t="s">
+      <c r="A34" s="116"/>
+      <c r="B34" s="116" t="s">
         <v>539</v>
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="13"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="140" t="s">
+      <c r="A35" s="108" t="s">
         <v>522</v>
       </c>
       <c r="B35" s="12" t="s">
@@ -8166,18 +8166,18 @@
       <c r="E35" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="F35" s="140" t="s">
+      <c r="F35" s="108" t="s">
         <v>522</v>
       </c>
-      <c r="G35" s="140" t="s">
+      <c r="G35" s="108" t="s">
         <v>521</v>
       </c>
-      <c r="H35" s="153" t="s">
+      <c r="H35" s="149" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="140" t="s">
+      <c r="A36" s="108" t="s">
         <v>522</v>
       </c>
       <c r="B36" s="12" t="s">
@@ -8192,27 +8192,27 @@
       <c r="E36" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F36" s="140" t="s">
+      <c r="F36" s="108" t="s">
         <v>522</v>
       </c>
-      <c r="G36" s="140" t="s">
+      <c r="G36" s="108" t="s">
         <v>521</v>
       </c>
-      <c r="H36" s="154"/>
+      <c r="H36" s="150"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="149" t="s">
+      <c r="A37" s="114" t="s">
         <v>91</v>
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="13"/>
-      <c r="H37" s="154"/>
+      <c r="H37" s="150"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="144" t="s">
+      <c r="A38" s="111" t="s">
         <v>525</v>
       </c>
-      <c r="B38" s="144" t="s">
+      <c r="B38" s="111" t="s">
         <v>527</v>
       </c>
       <c r="C38" s="18" t="s">
@@ -8224,19 +8224,19 @@
       <c r="E38" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="F38" s="140" t="s">
+      <c r="F38" s="108" t="s">
         <v>525</v>
       </c>
-      <c r="G38" s="140" t="s">
+      <c r="G38" s="108" t="s">
         <v>526</v>
       </c>
-      <c r="H38" s="154"/>
+      <c r="H38" s="150"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="144" t="s">
+      <c r="A39" s="111" t="s">
         <v>525</v>
       </c>
-      <c r="B39" s="144" t="s">
+      <c r="B39" s="111" t="s">
         <v>528</v>
       </c>
       <c r="C39" s="18" t="s">
@@ -8248,30 +8248,30 @@
       <c r="E39" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F39" s="140" t="s">
+      <c r="F39" s="108" t="s">
         <v>525</v>
       </c>
-      <c r="G39" s="140" t="s">
+      <c r="G39" s="108" t="s">
         <v>526</v>
       </c>
-      <c r="H39" s="154"/>
+      <c r="H39" s="150"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="150" t="s">
+      <c r="A40" s="115" t="s">
         <v>91</v>
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
-      <c r="H40" s="154"/>
+      <c r="H40" s="150"/>
     </row>
     <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="140" t="s">
+      <c r="A41" s="108" t="s">
         <v>529</v>
       </c>
-      <c r="B41" s="135" t="s">
+      <c r="B41" s="104" t="s">
         <v>531</v>
       </c>
-      <c r="C41" s="146" t="s">
+      <c r="C41" s="113" t="s">
         <v>23</v>
       </c>
       <c r="D41" s="13" t="s">
@@ -8280,22 +8280,22 @@
       <c r="E41" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="F41" s="140" t="s">
+      <c r="F41" s="108" t="s">
         <v>529</v>
       </c>
-      <c r="G41" s="140" t="s">
+      <c r="G41" s="108" t="s">
         <v>530</v>
       </c>
-      <c r="H41" s="154"/>
+      <c r="H41" s="150"/>
     </row>
     <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="140" t="s">
+      <c r="A42" s="108" t="s">
         <v>529</v>
       </c>
-      <c r="B42" s="135" t="s">
+      <c r="B42" s="104" t="s">
         <v>532</v>
       </c>
-      <c r="C42" s="146" t="s">
+      <c r="C42" s="113" t="s">
         <v>23</v>
       </c>
       <c r="D42" s="13" t="s">
@@ -8304,13 +8304,13 @@
       <c r="E42" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F42" s="140" t="s">
+      <c r="F42" s="108" t="s">
         <v>529</v>
       </c>
-      <c r="G42" s="140" t="s">
+      <c r="G42" s="108" t="s">
         <v>530</v>
       </c>
-      <c r="H42" s="154"/>
+      <c r="H42" s="150"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D43" s="13"/>
@@ -8321,10 +8321,10 @@
       <c r="E44" s="13"/>
     </row>
     <row r="45" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="139" t="s">
+      <c r="A45" s="151" t="s">
         <v>425</v>
       </c>
-      <c r="B45" s="139"/>
+      <c r="B45" s="151"/>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
       <c r="E45" s="13"/>
@@ -8335,10 +8335,10 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A46" s="139" t="s">
+      <c r="A46" s="151" t="s">
         <v>429</v>
       </c>
-      <c r="B46" s="139"/>
+      <c r="B46" s="151"/>
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
       <c r="E46" s="13"/>
@@ -8349,13 +8349,13 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="140" t="s">
+      <c r="A47" s="108" t="s">
         <v>535</v>
       </c>
       <c r="B47" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="146" t="s">
+      <c r="C47" s="113" t="s">
         <v>23</v>
       </c>
       <c r="D47" s="13" t="s">
@@ -8364,35 +8364,35 @@
       <c r="E47" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F47" s="140" t="s">
+      <c r="F47" s="108" t="s">
         <v>535</v>
       </c>
-      <c r="G47" s="140" t="s">
+      <c r="G47" s="108" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="139" t="s">
+      <c r="A48" s="151" t="s">
         <v>555</v>
       </c>
-      <c r="B48" s="139"/>
+      <c r="B48" s="151"/>
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
       <c r="E48" s="13"/>
       <c r="F48" s="16"/>
       <c r="G48" s="14"/>
-      <c r="H48" s="152" t="s">
+      <c r="H48" s="156" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="140" t="s">
+      <c r="A49" s="108" t="s">
         <v>535</v>
       </c>
       <c r="B49" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C49" s="146" t="s">
+      <c r="C49" s="113" t="s">
         <v>23</v>
       </c>
       <c r="D49" s="13" t="s">
@@ -8401,13 +8401,13 @@
       <c r="E49" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F49" s="140" t="s">
+      <c r="F49" s="108" t="s">
         <v>535</v>
       </c>
-      <c r="G49" s="140" t="s">
+      <c r="G49" s="108" t="s">
         <v>536</v>
       </c>
-      <c r="H49" s="152"/>
+      <c r="H49" s="156"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
@@ -8431,7 +8431,7 @@
       <c r="G50" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="H50" s="151" t="s">
+      <c r="H50" s="155" t="s">
         <v>557</v>
       </c>
     </row>
@@ -8457,13 +8457,13 @@
       <c r="G51" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="H51" s="151"/>
+      <c r="H51" s="155"/>
     </row>
     <row r="52" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A52" s="139" t="s">
+      <c r="A52" s="151" t="s">
         <v>558</v>
       </c>
-      <c r="B52" s="139"/>
+      <c r="B52" s="151"/>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
       <c r="E52" s="13"/>
@@ -8474,37 +8474,37 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="105" t="s">
+      <c r="A53" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="B53" s="105"/>
-      <c r="C53" s="105"/>
-      <c r="D53" s="105"/>
-      <c r="E53" s="105"/>
-      <c r="F53" s="105"/>
-      <c r="G53" s="105"/>
-      <c r="H53" s="105"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="119"/>
+      <c r="D53" s="119"/>
+      <c r="E53" s="119"/>
+      <c r="F53" s="119"/>
+      <c r="G53" s="119"/>
+      <c r="H53" s="119"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="136" t="s">
+      <c r="A54" s="105" t="s">
         <v>17</v>
       </c>
       <c r="B54" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="136" t="s">
+      <c r="C54" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="D54" s="136" t="s">
+      <c r="D54" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="E54" s="136" t="s">
+      <c r="E54" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="F54" s="136" t="s">
+      <c r="F54" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="G54" s="136" t="s">
+      <c r="G54" s="105" t="s">
         <v>16</v>
       </c>
       <c r="H54" s="10" t="s">
@@ -8558,7 +8558,7 @@
       <c r="E62" s="13"/>
     </row>
     <row r="63" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A63" s="135" t="s">
+      <c r="A63" s="104" t="s">
         <v>562</v>
       </c>
       <c r="C63" s="13" t="s">
@@ -8568,7 +8568,7 @@
         <v>25</v>
       </c>
       <c r="E63" s="13"/>
-      <c r="H63" s="156" t="s">
+      <c r="H63" s="117" t="s">
         <v>563</v>
       </c>
     </row>
@@ -8864,12 +8864,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A53:H53"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="A52:B52"/>
     <mergeCell ref="H35:H42"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="A1:H1"/>
@@ -8877,6 +8871,12 @@
     <mergeCell ref="H11:H27"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A53:H53"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="A52:B52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9030,16 +9030,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -9125,7 +9125,7 @@
       <c r="G5" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="106" t="s">
+      <c r="H5" s="120" t="s">
         <v>51</v>
       </c>
     </row>
@@ -9151,7 +9151,7 @@
       <c r="G6" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="106"/>
+      <c r="H6" s="120"/>
       <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -9176,7 +9176,7 @@
       <c r="G7" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="106"/>
+      <c r="H7" s="120"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
@@ -9375,16 +9375,16 @@
       <c r="H18" s="15"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="105" t="s">
+      <c r="A19" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="105"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="105"/>
+      <c r="B19" s="119"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="119"/>
+      <c r="H19" s="119"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
@@ -9615,10 +9615,10 @@
       <c r="H31" s="15"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="104" t="s">
+      <c r="A32" s="118" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="104"/>
+      <c r="B32" s="118"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -9705,16 +9705,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -9950,7 +9950,7 @@
       <c r="G14" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="H14" s="113" t="s">
+      <c r="H14" s="130" t="s">
         <v>264</v>
       </c>
     </row>
@@ -9976,19 +9976,19 @@
       <c r="G15" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="H15" s="113"/>
+      <c r="H15" s="130"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="110" t="s">
+      <c r="A16" s="123" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="110"/>
+      <c r="B16" s="123"/>
       <c r="C16" s="31"/>
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
       <c r="F16" s="30"/>
       <c r="G16" s="30"/>
-      <c r="H16" s="113"/>
+      <c r="H16" s="130"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="69" t="s">
@@ -10000,7 +10000,7 @@
       <c r="E17" s="24"/>
       <c r="F17" s="30"/>
       <c r="G17" s="30"/>
-      <c r="H17" s="113"/>
+      <c r="H17" s="130"/>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
@@ -10024,7 +10024,7 @@
       <c r="G18" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="H18" s="113"/>
+      <c r="H18" s="130"/>
     </row>
     <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
@@ -10048,19 +10048,19 @@
       <c r="G19" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="H19" s="113"/>
+      <c r="H19" s="130"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="111" t="s">
+      <c r="A20" s="128" t="s">
         <v>263</v>
       </c>
-      <c r="B20" s="112"/>
+      <c r="B20" s="129"/>
       <c r="C20" s="31"/>
       <c r="D20" s="25"/>
       <c r="E20" s="24"/>
       <c r="F20" s="30"/>
       <c r="G20" s="30"/>
-      <c r="H20" s="113"/>
+      <c r="H20" s="130"/>
     </row>
     <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
@@ -10084,7 +10084,7 @@
       <c r="G21" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="H21" s="113"/>
+      <c r="H21" s="130"/>
     </row>
     <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
@@ -10108,19 +10108,19 @@
       <c r="G22" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="H22" s="113"/>
+      <c r="H22" s="130"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="110" t="s">
+      <c r="A23" s="123" t="s">
         <v>91</v>
       </c>
-      <c r="B23" s="110"/>
+      <c r="B23" s="123"/>
       <c r="C23" s="31"/>
       <c r="D23" s="24"/>
       <c r="E23" s="24"/>
       <c r="F23" s="30"/>
       <c r="G23" s="30"/>
-      <c r="H23" s="113"/>
+      <c r="H23" s="130"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="69" t="s">
@@ -10132,7 +10132,7 @@
       <c r="E24" s="24"/>
       <c r="F24" s="30"/>
       <c r="G24" s="30"/>
-      <c r="H24" s="113"/>
+      <c r="H24" s="130"/>
     </row>
     <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
@@ -10156,7 +10156,7 @@
       <c r="G25" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="H25" s="113"/>
+      <c r="H25" s="130"/>
     </row>
     <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
@@ -10180,7 +10180,7 @@
       <c r="G26" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="H26" s="113"/>
+      <c r="H26" s="130"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
@@ -10204,7 +10204,7 @@
       <c r="G27" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="H27" s="113"/>
+      <c r="H27" s="130"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="30" t="s">
@@ -10228,7 +10228,7 @@
       <c r="G28" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="H28" s="113"/>
+      <c r="H28" s="130"/>
     </row>
     <row r="29" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="30" t="s">
@@ -10252,7 +10252,7 @@
       <c r="G29" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="H29" s="113"/>
+      <c r="H29" s="130"/>
     </row>
     <row r="30" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
@@ -10276,7 +10276,7 @@
       <c r="G30" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="H30" s="113"/>
+      <c r="H30" s="130"/>
     </row>
     <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="45" t="s">
@@ -10294,19 +10294,19 @@
       <c r="E31" s="24"/>
       <c r="F31" s="30"/>
       <c r="G31" s="30"/>
-      <c r="H31" s="113"/>
+      <c r="H31" s="130"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="110" t="s">
+      <c r="A32" s="123" t="s">
         <v>91</v>
       </c>
-      <c r="B32" s="110"/>
+      <c r="B32" s="123"/>
       <c r="C32" s="31"/>
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
       <c r="F32" s="30"/>
       <c r="G32" s="30"/>
-      <c r="H32" s="113"/>
+      <c r="H32" s="130"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="70" t="s">
@@ -10318,7 +10318,7 @@
       <c r="E33" s="24"/>
       <c r="F33" s="30"/>
       <c r="G33" s="30"/>
-      <c r="H33" s="113"/>
+      <c r="H33" s="130"/>
     </row>
     <row r="34" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="45" t="s">
@@ -10336,19 +10336,19 @@
       <c r="E34" s="24"/>
       <c r="F34" s="30"/>
       <c r="G34" s="30"/>
-      <c r="H34" s="113"/>
+      <c r="H34" s="130"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="110" t="s">
+      <c r="A35" s="123" t="s">
         <v>91</v>
       </c>
-      <c r="B35" s="110"/>
+      <c r="B35" s="123"/>
       <c r="C35" s="31"/>
       <c r="D35" s="24"/>
       <c r="E35" s="24"/>
       <c r="F35" s="30"/>
       <c r="G35" s="30"/>
-      <c r="H35" s="113"/>
+      <c r="H35" s="130"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="69" t="s">
@@ -10360,7 +10360,7 @@
       <c r="E36" s="24"/>
       <c r="F36" s="30"/>
       <c r="G36" s="30"/>
-      <c r="H36" s="113"/>
+      <c r="H36" s="130"/>
     </row>
     <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="45" t="s">
@@ -10378,7 +10378,7 @@
       <c r="E37" s="24"/>
       <c r="F37" s="30"/>
       <c r="G37" s="30"/>
-      <c r="H37" s="113"/>
+      <c r="H37" s="130"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
@@ -10389,16 +10389,16 @@
       <c r="F38" s="9"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="105" t="s">
+      <c r="A39" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="105"/>
-      <c r="C39" s="105"/>
-      <c r="D39" s="105"/>
-      <c r="E39" s="105"/>
-      <c r="F39" s="105"/>
-      <c r="G39" s="105"/>
-      <c r="H39" s="105"/>
+      <c r="B39" s="119"/>
+      <c r="C39" s="119"/>
+      <c r="D39" s="119"/>
+      <c r="E39" s="119"/>
+      <c r="F39" s="119"/>
+      <c r="G39" s="119"/>
+      <c r="H39" s="119"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
@@ -10541,10 +10541,10 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="115" t="s">
+      <c r="A47" s="121" t="s">
         <v>91</v>
       </c>
-      <c r="B47" s="115"/>
+      <c r="B47" s="121"/>
       <c r="C47" s="31"/>
       <c r="D47" s="24"/>
       <c r="E47" s="24"/>
@@ -10574,7 +10574,7 @@
       <c r="G48" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="H48" s="114" t="s">
+      <c r="H48" s="124" t="s">
         <v>227</v>
       </c>
     </row>
@@ -10588,7 +10588,7 @@
       <c r="E49" s="24"/>
       <c r="F49" s="27"/>
       <c r="G49" s="38"/>
-      <c r="H49" s="114"/>
+      <c r="H49" s="124"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="30" t="s">
@@ -10612,7 +10612,7 @@
       <c r="G50" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="H50" s="114"/>
+      <c r="H50" s="124"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="42" t="s">
@@ -10624,7 +10624,7 @@
       <c r="E51" s="24"/>
       <c r="F51" s="27"/>
       <c r="G51" s="38"/>
-      <c r="H51" s="114"/>
+      <c r="H51" s="124"/>
     </row>
     <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
@@ -10648,7 +10648,7 @@
       <c r="G52" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="H52" s="114"/>
+      <c r="H52" s="124"/>
     </row>
     <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
@@ -10672,13 +10672,13 @@
       <c r="G53" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="H53" s="114"/>
+      <c r="H53" s="124"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="115" t="s">
+      <c r="A54" s="121" t="s">
         <v>91</v>
       </c>
-      <c r="B54" s="115"/>
+      <c r="B54" s="121"/>
       <c r="C54" s="31"/>
       <c r="D54" s="24"/>
       <c r="E54" s="24"/>
@@ -10708,7 +10708,7 @@
       <c r="G55" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="H55" s="114" t="s">
+      <c r="H55" s="124" t="s">
         <v>228</v>
       </c>
     </row>
@@ -10722,7 +10722,7 @@
       <c r="E56" s="24"/>
       <c r="F56" s="27"/>
       <c r="G56" s="27"/>
-      <c r="H56" s="114"/>
+      <c r="H56" s="124"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
@@ -10746,7 +10746,7 @@
       <c r="G57" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="H57" s="114"/>
+      <c r="H57" s="124"/>
     </row>
     <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
@@ -10770,7 +10770,7 @@
       <c r="G58" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="H58" s="114"/>
+      <c r="H58" s="124"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="40" t="s">
@@ -10782,7 +10782,7 @@
       <c r="E59" s="24"/>
       <c r="F59" s="27"/>
       <c r="G59" s="27"/>
-      <c r="H59" s="114"/>
+      <c r="H59" s="124"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="30" t="s">
@@ -10806,7 +10806,7 @@
       <c r="G60" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="H60" s="114"/>
+      <c r="H60" s="124"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="42" t="s">
@@ -10818,7 +10818,7 @@
       <c r="E61" s="24"/>
       <c r="F61" s="27"/>
       <c r="G61" s="38"/>
-      <c r="H61" s="114"/>
+      <c r="H61" s="124"/>
     </row>
     <row r="62" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
@@ -10842,7 +10842,7 @@
       <c r="G62" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="H62" s="114"/>
+      <c r="H62" s="124"/>
     </row>
     <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
@@ -10866,7 +10866,7 @@
       <c r="G63" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="H63" s="114"/>
+      <c r="H63" s="124"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="40" t="s">
@@ -10878,7 +10878,7 @@
       <c r="E64" s="24"/>
       <c r="F64" s="27"/>
       <c r="G64" s="27"/>
-      <c r="H64" s="114"/>
+      <c r="H64" s="124"/>
     </row>
     <row r="65" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="30" t="s">
@@ -10902,7 +10902,7 @@
       <c r="G65" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="H65" s="114"/>
+      <c r="H65" s="124"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="40" t="s">
@@ -10914,7 +10914,7 @@
       <c r="E66" s="24"/>
       <c r="F66" s="27"/>
       <c r="G66" s="27"/>
-      <c r="H66" s="114"/>
+      <c r="H66" s="124"/>
     </row>
     <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="30" t="s">
@@ -10938,7 +10938,7 @@
       <c r="G67" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="H67" s="114"/>
+      <c r="H67" s="124"/>
     </row>
     <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="30" t="s">
@@ -10962,7 +10962,7 @@
       <c r="G68" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="H68" s="114"/>
+      <c r="H68" s="124"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="40" t="s">
@@ -11036,7 +11036,7 @@
       <c r="G72" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="H72" s="116" t="s">
+      <c r="H72" s="122" t="s">
         <v>230</v>
       </c>
     </row>
@@ -11062,7 +11062,7 @@
       <c r="G73" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="H73" s="116"/>
+      <c r="H73" s="122"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="42" t="s">
@@ -11074,7 +11074,7 @@
       <c r="E74" s="24"/>
       <c r="F74" s="30"/>
       <c r="G74" s="30"/>
-      <c r="H74" s="116"/>
+      <c r="H74" s="122"/>
     </row>
     <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="30" t="s">
@@ -11098,7 +11098,7 @@
       <c r="G75" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="H75" s="116"/>
+      <c r="H75" s="122"/>
     </row>
     <row r="76" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="30" t="s">
@@ -11122,19 +11122,19 @@
       <c r="G76" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="H76" s="116"/>
+      <c r="H76" s="122"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="115" t="s">
+      <c r="A77" s="121" t="s">
         <v>91</v>
       </c>
-      <c r="B77" s="115"/>
+      <c r="B77" s="121"/>
       <c r="C77" s="31"/>
       <c r="D77" s="24"/>
       <c r="E77" s="24"/>
       <c r="F77" s="27"/>
       <c r="G77" s="27"/>
-      <c r="H77" s="116"/>
+      <c r="H77" s="122"/>
     </row>
     <row r="78" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="30" t="s">
@@ -11158,7 +11158,7 @@
       <c r="G78" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="H78" s="116"/>
+      <c r="H78" s="122"/>
     </row>
     <row r="79" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="30" t="s">
@@ -11182,7 +11182,7 @@
       <c r="G79" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="H79" s="116"/>
+      <c r="H79" s="122"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="40" t="s">
@@ -11218,21 +11218,21 @@
       <c r="G81" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="H81" s="116" t="s">
+      <c r="H81" s="122" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="115" t="s">
+      <c r="A82" s="121" t="s">
         <v>91</v>
       </c>
-      <c r="B82" s="115"/>
+      <c r="B82" s="121"/>
       <c r="C82" s="31"/>
       <c r="D82" s="24"/>
       <c r="E82" s="24"/>
       <c r="F82" s="27"/>
       <c r="G82" s="27"/>
-      <c r="H82" s="116"/>
+      <c r="H82" s="122"/>
     </row>
     <row r="83" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A83" s="30" t="s">
@@ -11256,7 +11256,7 @@
       <c r="G83" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="H83" s="116"/>
+      <c r="H83" s="122"/>
     </row>
     <row r="84" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A84" s="30" t="s">
@@ -11280,7 +11280,7 @@
       <c r="G84" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="H84" s="116"/>
+      <c r="H84" s="122"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="42" t="s">
@@ -11316,7 +11316,7 @@
       <c r="G86" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="H86" s="116" t="s">
+      <c r="H86" s="122" t="s">
         <v>232</v>
       </c>
     </row>
@@ -11342,7 +11342,7 @@
       <c r="G87" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="H87" s="116"/>
+      <c r="H87" s="122"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="42" t="s">
@@ -11378,21 +11378,21 @@
       <c r="G89" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="H89" s="116" t="s">
+      <c r="H89" s="122" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="110" t="s">
+      <c r="A90" s="123" t="s">
         <v>91</v>
       </c>
-      <c r="B90" s="110"/>
+      <c r="B90" s="123"/>
       <c r="C90" s="31"/>
       <c r="D90" s="24"/>
       <c r="E90" s="24"/>
       <c r="F90" s="30"/>
       <c r="G90" s="30"/>
-      <c r="H90" s="116"/>
+      <c r="H90" s="122"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="30" t="s">
@@ -11416,7 +11416,7 @@
       <c r="G91" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="H91" s="116"/>
+      <c r="H91" s="122"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="30" t="s">
@@ -11440,7 +11440,7 @@
       <c r="G92" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="H92" s="116"/>
+      <c r="H92" s="122"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="42" t="s">
@@ -11476,21 +11476,21 @@
       <c r="G94" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="H94" s="116" t="s">
+      <c r="H94" s="122" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="110" t="s">
+      <c r="A95" s="123" t="s">
         <v>91</v>
       </c>
-      <c r="B95" s="110"/>
+      <c r="B95" s="123"/>
       <c r="C95" s="31"/>
       <c r="D95" s="24"/>
       <c r="E95" s="24"/>
       <c r="F95" s="30"/>
       <c r="G95" s="30"/>
-      <c r="H95" s="116"/>
+      <c r="H95" s="122"/>
     </row>
     <row r="96" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="30" t="s">
@@ -11514,19 +11514,19 @@
       <c r="G96" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="H96" s="116"/>
+      <c r="H96" s="122"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="110" t="s">
+      <c r="A97" s="123" t="s">
         <v>91</v>
       </c>
-      <c r="B97" s="110"/>
+      <c r="B97" s="123"/>
       <c r="C97" s="31"/>
       <c r="D97" s="24"/>
       <c r="E97" s="24"/>
       <c r="F97" s="30"/>
       <c r="G97" s="30"/>
-      <c r="H97" s="116"/>
+      <c r="H97" s="122"/>
     </row>
     <row r="98" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="30" t="s">
@@ -11550,7 +11550,7 @@
       <c r="G98" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="H98" s="116"/>
+      <c r="H98" s="122"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="42" t="s">
@@ -11562,7 +11562,7 @@
       <c r="E99" s="24"/>
       <c r="F99" s="30"/>
       <c r="G99" s="30"/>
-      <c r="H99" s="116"/>
+      <c r="H99" s="122"/>
     </row>
     <row r="100" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="30" t="s">
@@ -11586,7 +11586,7 @@
       <c r="G100" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="H100" s="116"/>
+      <c r="H100" s="122"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="42" t="s">
@@ -11741,10 +11741,10 @@
       <c r="H111" s="3"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="104" t="s">
+      <c r="A112" s="118" t="s">
         <v>32</v>
       </c>
-      <c r="B112" s="104"/>
+      <c r="B112" s="118"/>
       <c r="C112" s="18"/>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -11756,19 +11756,19 @@
       <c r="E113" s="8"/>
     </row>
     <row r="114" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="107" t="s">
+      <c r="A114" s="125" t="s">
         <v>237</v>
       </c>
-      <c r="B114" s="108"/>
-      <c r="C114" s="108"/>
-      <c r="D114" s="108"/>
-      <c r="E114" s="108"/>
-      <c r="F114" s="108"/>
-      <c r="G114" s="108"/>
-      <c r="H114" s="108"/>
-      <c r="I114" s="108"/>
-      <c r="J114" s="108"/>
-      <c r="K114" s="109"/>
+      <c r="B114" s="126"/>
+      <c r="C114" s="126"/>
+      <c r="D114" s="126"/>
+      <c r="E114" s="126"/>
+      <c r="F114" s="126"/>
+      <c r="G114" s="126"/>
+      <c r="H114" s="126"/>
+      <c r="I114" s="126"/>
+      <c r="J114" s="126"/>
+      <c r="K114" s="127"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="52" t="s">
@@ -12090,6 +12090,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A114:K114"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="H14:H37"/>
+    <mergeCell ref="H55:H68"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="H72:H79"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A39:H39"/>
     <mergeCell ref="A112:B112"/>
@@ -12106,14 +12114,6 @@
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="H48:H53"/>
     <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A114:K114"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="H14:H37"/>
-    <mergeCell ref="H55:H68"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="H72:H79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -12172,16 +12172,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -12390,7 +12390,7 @@
       <c r="G12" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="H12" s="117" t="s">
+      <c r="H12" s="131" t="s">
         <v>191</v>
       </c>
     </row>
@@ -12416,13 +12416,13 @@
       <c r="G13" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="H13" s="117"/>
+      <c r="H13" s="131"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="111" t="s">
+      <c r="A14" s="128" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="112"/>
+      <c r="B14" s="129"/>
       <c r="C14" s="31"/>
       <c r="D14" s="24"/>
       <c r="E14" s="24"/>
@@ -12467,16 +12467,16 @@
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="105" t="s">
+      <c r="A17" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="105"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="105"/>
-      <c r="H17" s="105"/>
+      <c r="B17" s="119"/>
+      <c r="C17" s="119"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="119"/>
+      <c r="H17" s="119"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="47" t="s">
@@ -12552,21 +12552,21 @@
       <c r="G20" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="H20" s="114" t="s">
+      <c r="H20" s="124" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="115" t="s">
+      <c r="A21" s="121" t="s">
         <v>91</v>
       </c>
-      <c r="B21" s="115"/>
+      <c r="B21" s="121"/>
       <c r="C21" s="31"/>
       <c r="D21" s="24"/>
       <c r="E21" s="24"/>
       <c r="F21" s="27"/>
       <c r="G21" s="27"/>
-      <c r="H21" s="114"/>
+      <c r="H21" s="124"/>
     </row>
     <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
@@ -12590,19 +12590,19 @@
       <c r="G22" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="H22" s="114"/>
+      <c r="H22" s="124"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="115" t="s">
+      <c r="A23" s="121" t="s">
         <v>91</v>
       </c>
-      <c r="B23" s="115"/>
+      <c r="B23" s="121"/>
       <c r="C23" s="31"/>
       <c r="D23" s="24"/>
       <c r="E23" s="24"/>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
-      <c r="H23" s="114"/>
+      <c r="H23" s="124"/>
     </row>
     <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
@@ -12626,7 +12626,7 @@
       <c r="G24" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="H24" s="114"/>
+      <c r="H24" s="124"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="42" t="s">
@@ -12638,7 +12638,7 @@
       <c r="E25" s="24"/>
       <c r="F25" s="30"/>
       <c r="G25" s="30"/>
-      <c r="H25" s="114"/>
+      <c r="H25" s="124"/>
     </row>
     <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
@@ -12662,7 +12662,7 @@
       <c r="G26" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="H26" s="114"/>
+      <c r="H26" s="124"/>
     </row>
     <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
@@ -12715,10 +12715,10 @@
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="104" t="s">
+      <c r="A31" s="118" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="104"/>
+      <c r="B31" s="118"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="13"/>
@@ -12809,16 +12809,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -13079,7 +13079,7 @@
       <c r="G15" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="H15" s="117" t="s">
+      <c r="H15" s="131" t="s">
         <v>191</v>
       </c>
     </row>
@@ -13105,13 +13105,13 @@
       <c r="G16" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="H16" s="117"/>
+      <c r="H16" s="131"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="110" t="s">
+      <c r="A17" s="123" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="110"/>
+      <c r="B17" s="123"/>
       <c r="C17" s="31"/>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
@@ -13154,16 +13154,16 @@
       <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="105" t="s">
+      <c r="A20" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="105"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="105"/>
+      <c r="B20" s="119"/>
+      <c r="C20" s="119"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="47" t="s">
@@ -13242,10 +13242,10 @@
       <c r="H24" s="10"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="104" t="s">
+      <c r="A25" s="118" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="104"/>
+      <c r="B25" s="118"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="13"/>
@@ -13319,16 +13319,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="73" t="s">
@@ -13525,16 +13525,16 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="105" t="s">
+      <c r="A13" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="105"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="105"/>
+      <c r="B13" s="119"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="119"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="73" t="s">
@@ -13584,7 +13584,7 @@
       <c r="G15" s="30" t="s">
         <v>292</v>
       </c>
-      <c r="H15" s="118" t="s">
+      <c r="H15" s="132" t="s">
         <v>510</v>
       </c>
     </row>
@@ -13610,7 +13610,7 @@
       <c r="G16" s="30" t="s">
         <v>292</v>
       </c>
-      <c r="H16" s="119"/>
+      <c r="H16" s="133"/>
     </row>
     <row r="17" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
@@ -13637,10 +13637,10 @@
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="104" t="s">
+      <c r="A19" s="118" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="104"/>
+      <c r="B19" s="118"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="13"/>
@@ -13698,16 +13698,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="73" t="s">
@@ -13918,16 +13918,16 @@
       <c r="H12" s="26"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="125" t="s">
+      <c r="A13" s="136" t="s">
         <v>299</v>
       </c>
-      <c r="B13" s="126"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="126"/>
-      <c r="E13" s="126"/>
-      <c r="F13" s="126"/>
-      <c r="G13" s="126"/>
-      <c r="H13" s="127"/>
+      <c r="B13" s="137"/>
+      <c r="C13" s="137"/>
+      <c r="D13" s="137"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="138"/>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
@@ -13951,7 +13951,7 @@
       <c r="G14" s="30" t="s">
         <v>304</v>
       </c>
-      <c r="H14" s="117"/>
+      <c r="H14" s="131"/>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
@@ -13975,13 +13975,13 @@
       <c r="G15" s="30" t="s">
         <v>304</v>
       </c>
-      <c r="H15" s="117"/>
+      <c r="H15" s="131"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="110" t="s">
+      <c r="A16" s="123" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="110"/>
+      <c r="B16" s="123"/>
       <c r="C16" s="31"/>
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
@@ -14038,10 +14038,10 @@
       <c r="H18" s="102"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="123" t="s">
+      <c r="A19" s="134" t="s">
         <v>263</v>
       </c>
-      <c r="B19" s="124"/>
+      <c r="B19" s="135"/>
       <c r="C19" s="31"/>
       <c r="D19" s="24"/>
       <c r="E19" s="24"/>
@@ -14074,10 +14074,10 @@
       <c r="H20" s="103"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="111" t="s">
+      <c r="A21" s="128" t="s">
         <v>91</v>
       </c>
-      <c r="B21" s="112"/>
+      <c r="B21" s="129"/>
       <c r="C21" s="31"/>
       <c r="D21" s="24"/>
       <c r="E21" s="24"/>
@@ -14107,7 +14107,7 @@
       <c r="G22" s="30" t="s">
         <v>306</v>
       </c>
-      <c r="H22" s="120" t="s">
+      <c r="H22" s="139" t="s">
         <v>505</v>
       </c>
     </row>
@@ -14133,13 +14133,13 @@
       <c r="G23" s="30" t="s">
         <v>306</v>
       </c>
-      <c r="H23" s="122"/>
+      <c r="H23" s="140"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="111" t="s">
+      <c r="A24" s="128" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="112"/>
+      <c r="B24" s="129"/>
       <c r="C24" s="31"/>
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
@@ -14171,7 +14171,7 @@
       <c r="G25" s="30" t="s">
         <v>306</v>
       </c>
-      <c r="H25" s="120" t="s">
+      <c r="H25" s="139" t="s">
         <v>318</v>
       </c>
     </row>
@@ -14197,7 +14197,7 @@
       <c r="G26" s="30" t="s">
         <v>306</v>
       </c>
-      <c r="H26" s="121"/>
+      <c r="H26" s="141"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="42" t="s">
@@ -14209,7 +14209,7 @@
       <c r="E27" s="24"/>
       <c r="F27" s="30"/>
       <c r="G27" s="30"/>
-      <c r="H27" s="121"/>
+      <c r="H27" s="141"/>
     </row>
     <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="30" t="s">
@@ -14233,19 +14233,19 @@
       <c r="G28" s="30" t="s">
         <v>313</v>
       </c>
-      <c r="H28" s="121"/>
+      <c r="H28" s="141"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="111" t="s">
+      <c r="A29" s="128" t="s">
         <v>94</v>
       </c>
-      <c r="B29" s="112"/>
+      <c r="B29" s="129"/>
       <c r="C29" s="31"/>
       <c r="D29" s="24"/>
       <c r="E29" s="24"/>
       <c r="F29" s="30"/>
       <c r="G29" s="30"/>
-      <c r="H29" s="121"/>
+      <c r="H29" s="141"/>
     </row>
     <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
@@ -14269,7 +14269,7 @@
       <c r="G30" s="30" t="s">
         <v>306</v>
       </c>
-      <c r="H30" s="121"/>
+      <c r="H30" s="141"/>
     </row>
     <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="30" t="s">
@@ -14293,19 +14293,19 @@
       <c r="G31" s="30" t="s">
         <v>306</v>
       </c>
-      <c r="H31" s="121"/>
+      <c r="H31" s="141"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="123" t="s">
+      <c r="A32" s="134" t="s">
         <v>263</v>
       </c>
-      <c r="B32" s="124"/>
+      <c r="B32" s="135"/>
       <c r="C32" s="31"/>
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
       <c r="F32" s="30"/>
       <c r="G32" s="30"/>
-      <c r="H32" s="121"/>
+      <c r="H32" s="141"/>
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="30" t="s">
@@ -14329,13 +14329,13 @@
       <c r="G33" s="30" t="s">
         <v>316</v>
       </c>
-      <c r="H33" s="122"/>
+      <c r="H33" s="140"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="111" t="s">
+      <c r="A34" s="128" t="s">
         <v>91</v>
       </c>
-      <c r="B34" s="112"/>
+      <c r="B34" s="129"/>
       <c r="C34" s="31"/>
       <c r="D34" s="24"/>
       <c r="E34" s="24"/>
@@ -14367,21 +14367,21 @@
       <c r="G35" s="30" t="s">
         <v>324</v>
       </c>
-      <c r="H35" s="120" t="s">
+      <c r="H35" s="139" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="123" t="s">
+      <c r="A36" s="134" t="s">
         <v>94</v>
       </c>
-      <c r="B36" s="124"/>
+      <c r="B36" s="135"/>
       <c r="C36" s="31"/>
       <c r="D36" s="24"/>
       <c r="E36" s="24"/>
       <c r="F36" s="30"/>
       <c r="G36" s="30"/>
-      <c r="H36" s="121"/>
+      <c r="H36" s="141"/>
     </row>
     <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="30" t="s">
@@ -14405,13 +14405,13 @@
       <c r="G37" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="H37" s="122"/>
+      <c r="H37" s="140"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="111" t="s">
+      <c r="A38" s="128" t="s">
         <v>91</v>
       </c>
-      <c r="B38" s="112"/>
+      <c r="B38" s="129"/>
       <c r="C38" s="31"/>
       <c r="D38" s="24"/>
       <c r="E38" s="24"/>
@@ -14448,10 +14448,10 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="111" t="s">
+      <c r="A40" s="128" t="s">
         <v>91</v>
       </c>
-      <c r="B40" s="112"/>
+      <c r="B40" s="129"/>
       <c r="C40" s="31"/>
       <c r="D40" s="24"/>
       <c r="E40" s="24"/>
@@ -14483,21 +14483,21 @@
       <c r="G41" s="30" t="s">
         <v>330</v>
       </c>
-      <c r="H41" s="120" t="s">
+      <c r="H41" s="139" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="123" t="s">
+      <c r="A42" s="134" t="s">
         <v>94</v>
       </c>
-      <c r="B42" s="124"/>
+      <c r="B42" s="135"/>
       <c r="C42" s="31"/>
       <c r="D42" s="24"/>
       <c r="E42" s="24"/>
       <c r="F42" s="30"/>
       <c r="G42" s="30"/>
-      <c r="H42" s="121"/>
+      <c r="H42" s="141"/>
     </row>
     <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
@@ -14521,7 +14521,7 @@
       <c r="G43" s="30" t="s">
         <v>332</v>
       </c>
-      <c r="H43" s="122"/>
+      <c r="H43" s="140"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
@@ -14534,16 +14534,16 @@
       <c r="H44" s="4"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="105" t="s">
+      <c r="A45" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="105"/>
-      <c r="C45" s="105"/>
-      <c r="D45" s="105"/>
-      <c r="E45" s="105"/>
-      <c r="F45" s="105"/>
-      <c r="G45" s="105"/>
-      <c r="H45" s="105"/>
+      <c r="B45" s="119"/>
+      <c r="C45" s="119"/>
+      <c r="D45" s="119"/>
+      <c r="E45" s="119"/>
+      <c r="F45" s="119"/>
+      <c r="G45" s="119"/>
+      <c r="H45" s="119"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="73" t="s">
@@ -14593,7 +14593,7 @@
       <c r="G47" s="30" t="s">
         <v>340</v>
       </c>
-      <c r="H47" s="118" t="s">
+      <c r="H47" s="132" t="s">
         <v>515</v>
       </c>
     </row>
@@ -14619,7 +14619,7 @@
       <c r="G48" s="30" t="s">
         <v>340</v>
       </c>
-      <c r="H48" s="128"/>
+      <c r="H48" s="142"/>
     </row>
     <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="30" t="s">
@@ -14643,7 +14643,7 @@
       <c r="G49" s="30" t="s">
         <v>340</v>
       </c>
-      <c r="H49" s="128"/>
+      <c r="H49" s="142"/>
     </row>
     <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="30" t="s">
@@ -14667,7 +14667,7 @@
       <c r="G50" s="30" t="s">
         <v>340</v>
       </c>
-      <c r="H50" s="119"/>
+      <c r="H50" s="133"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="30"/>
@@ -14690,10 +14690,10 @@
       <c r="H52" s="10"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="104" t="s">
+      <c r="A53" s="118" t="s">
         <v>32</v>
       </c>
-      <c r="B53" s="104"/>
+      <c r="B53" s="118"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
       <c r="E53" s="13"/>
@@ -14703,6 +14703,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="H41:H43"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="A16:B16"/>
@@ -14719,11 +14724,6 @@
     <mergeCell ref="H47:H50"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A36:B36"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="H41:H43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -14769,16 +14769,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="73" t="s">
@@ -15005,10 +15005,10 @@
       <c r="H13" s="26"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="125" t="s">
+      <c r="A14" s="136" t="s">
         <v>260</v>
       </c>
-      <c r="B14" s="127"/>
+      <c r="B14" s="138"/>
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
       <c r="E14" s="24"/>
@@ -15038,7 +15038,7 @@
       <c r="G15" s="30" t="s">
         <v>349</v>
       </c>
-      <c r="H15" s="120" t="s">
+      <c r="H15" s="139" t="s">
         <v>512</v>
       </c>
     </row>
@@ -15064,7 +15064,7 @@
       <c r="G16" s="30" t="s">
         <v>349</v>
       </c>
-      <c r="H16" s="121"/>
+      <c r="H16" s="141"/>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
@@ -15088,7 +15088,7 @@
       <c r="G17" s="30" t="s">
         <v>349</v>
       </c>
-      <c r="H17" s="121"/>
+      <c r="H17" s="141"/>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
@@ -15112,7 +15112,7 @@
       <c r="G18" s="30" t="s">
         <v>349</v>
       </c>
-      <c r="H18" s="121"/>
+      <c r="H18" s="141"/>
     </row>
     <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
@@ -15136,7 +15136,7 @@
       <c r="G19" s="30" t="s">
         <v>349</v>
       </c>
-      <c r="H19" s="122"/>
+      <c r="H19" s="140"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
@@ -15149,16 +15149,16 @@
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="105" t="s">
+      <c r="A21" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="105"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="105"/>
-      <c r="H21" s="105"/>
+      <c r="B21" s="119"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="119"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="73" t="s">
@@ -15187,10 +15187,10 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="129" t="s">
+      <c r="A23" s="143" t="s">
         <v>355</v>
       </c>
-      <c r="B23" s="130"/>
+      <c r="B23" s="144"/>
       <c r="C23" s="73"/>
       <c r="D23" s="73"/>
       <c r="E23" s="73"/>
@@ -15220,7 +15220,7 @@
       <c r="G24" s="30" t="s">
         <v>361</v>
       </c>
-      <c r="H24" s="118" t="s">
+      <c r="H24" s="132" t="s">
         <v>513</v>
       </c>
     </row>
@@ -15246,7 +15246,7 @@
       <c r="G25" s="30" t="s">
         <v>361</v>
       </c>
-      <c r="H25" s="128"/>
+      <c r="H25" s="142"/>
     </row>
     <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
@@ -15270,7 +15270,7 @@
       <c r="G26" s="30" t="s">
         <v>361</v>
       </c>
-      <c r="H26" s="128"/>
+      <c r="H26" s="142"/>
     </row>
     <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
@@ -15294,13 +15294,13 @@
       <c r="G27" s="30" t="s">
         <v>361</v>
       </c>
-      <c r="H27" s="119"/>
+      <c r="H27" s="133"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="111" t="s">
+      <c r="A28" s="128" t="s">
         <v>360</v>
       </c>
-      <c r="B28" s="112"/>
+      <c r="B28" s="129"/>
       <c r="C28" s="31"/>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
@@ -15330,7 +15330,7 @@
       <c r="G29" s="30" t="s">
         <v>361</v>
       </c>
-      <c r="H29" s="118" t="s">
+      <c r="H29" s="132" t="s">
         <v>511</v>
       </c>
     </row>
@@ -15356,7 +15356,7 @@
       <c r="G30" s="30" t="s">
         <v>361</v>
       </c>
-      <c r="H30" s="128"/>
+      <c r="H30" s="142"/>
     </row>
     <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="30" t="s">
@@ -15380,7 +15380,7 @@
       <c r="G31" s="30" t="s">
         <v>361</v>
       </c>
-      <c r="H31" s="128"/>
+      <c r="H31" s="142"/>
     </row>
     <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="82" t="s">
@@ -15404,19 +15404,19 @@
       <c r="G32" s="82" t="s">
         <v>361</v>
       </c>
-      <c r="H32" s="128"/>
+      <c r="H32" s="142"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="131" t="s">
+      <c r="A33" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="B33" s="131"/>
+      <c r="B33" s="145"/>
       <c r="C33" s="87"/>
       <c r="D33" s="87"/>
       <c r="E33" s="87"/>
       <c r="F33" s="87"/>
       <c r="G33" s="87"/>
-      <c r="H33" s="128"/>
+      <c r="H33" s="142"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="30" t="s">
@@ -15440,7 +15440,7 @@
       <c r="G34" s="30" t="s">
         <v>363</v>
       </c>
-      <c r="H34" s="128"/>
+      <c r="H34" s="142"/>
     </row>
     <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="30" t="s">
@@ -15464,13 +15464,13 @@
       <c r="G35" s="30" t="s">
         <v>363</v>
       </c>
-      <c r="H35" s="128"/>
+      <c r="H35" s="142"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="111" t="s">
+      <c r="A36" s="128" t="s">
         <v>366</v>
       </c>
-      <c r="B36" s="112"/>
+      <c r="B36" s="129"/>
       <c r="C36" s="88"/>
       <c r="D36" s="40"/>
       <c r="E36" s="40"/>
@@ -15500,10 +15500,10 @@
       <c r="G38" s="17"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="104" t="s">
+      <c r="A39" s="118" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="104"/>
+      <c r="B39" s="118"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="13"/>
@@ -15567,16 +15567,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="73" t="s">
@@ -15731,10 +15731,10 @@
       <c r="H9" s="26"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="125" t="s">
+      <c r="A10" s="136" t="s">
         <v>278</v>
       </c>
-      <c r="B10" s="127"/>
+      <c r="B10" s="138"/>
       <c r="C10" s="24"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
@@ -15764,7 +15764,7 @@
       <c r="G11" s="30" t="s">
         <v>374</v>
       </c>
-      <c r="H11" s="120" t="s">
+      <c r="H11" s="139" t="s">
         <v>372</v>
       </c>
     </row>
@@ -15790,7 +15790,7 @@
       <c r="G12" s="30" t="s">
         <v>374</v>
       </c>
-      <c r="H12" s="121"/>
+      <c r="H12" s="141"/>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
@@ -15814,19 +15814,19 @@
       <c r="G13" s="30" t="s">
         <v>374</v>
       </c>
-      <c r="H13" s="121"/>
+      <c r="H13" s="141"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="110" t="s">
+      <c r="A14" s="123" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="110"/>
+      <c r="B14" s="123"/>
       <c r="C14" s="31"/>
       <c r="D14" s="24"/>
       <c r="E14" s="24"/>
       <c r="F14" s="30"/>
       <c r="G14" s="30"/>
-      <c r="H14" s="121"/>
+      <c r="H14" s="141"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
@@ -15850,7 +15850,7 @@
       <c r="G15" s="30" t="s">
         <v>379</v>
       </c>
-      <c r="H15" s="121"/>
+      <c r="H15" s="141"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
@@ -15874,7 +15874,7 @@
       <c r="G16" s="30" t="s">
         <v>379</v>
       </c>
-      <c r="H16" s="121"/>
+      <c r="H16" s="141"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
@@ -15898,7 +15898,7 @@
       <c r="G17" s="30" t="s">
         <v>379</v>
       </c>
-      <c r="H17" s="122"/>
+      <c r="H17" s="140"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
@@ -15911,16 +15911,16 @@
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="105" t="s">
+      <c r="A19" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="105"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="105"/>
+      <c r="B19" s="119"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="119"/>
+      <c r="H19" s="119"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="73" t="s">
@@ -15970,7 +15970,7 @@
       <c r="G21" s="30" t="s">
         <v>385</v>
       </c>
-      <c r="H21" s="113" t="s">
+      <c r="H21" s="130" t="s">
         <v>390</v>
       </c>
     </row>
@@ -15996,7 +15996,7 @@
       <c r="G22" s="30" t="s">
         <v>385</v>
       </c>
-      <c r="H22" s="113"/>
+      <c r="H22" s="130"/>
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
@@ -16020,19 +16020,19 @@
       <c r="G23" s="30" t="s">
         <v>385</v>
       </c>
-      <c r="H23" s="113"/>
+      <c r="H23" s="130"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="111" t="s">
+      <c r="A24" s="128" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="112"/>
+      <c r="B24" s="129"/>
       <c r="C24" s="31"/>
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
       <c r="F24" s="30"/>
       <c r="G24" s="30"/>
-      <c r="H24" s="113"/>
+      <c r="H24" s="130"/>
     </row>
     <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
@@ -16056,7 +16056,7 @@
       <c r="G25" s="30" t="s">
         <v>392</v>
       </c>
-      <c r="H25" s="113"/>
+      <c r="H25" s="130"/>
     </row>
     <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
@@ -16080,7 +16080,7 @@
       <c r="G26" s="30" t="s">
         <v>392</v>
       </c>
-      <c r="H26" s="113"/>
+      <c r="H26" s="130"/>
     </row>
     <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
@@ -16104,19 +16104,19 @@
       <c r="G27" s="30" t="s">
         <v>392</v>
       </c>
-      <c r="H27" s="113"/>
+      <c r="H27" s="130"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="111" t="s">
+      <c r="A28" s="128" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="112"/>
+      <c r="B28" s="129"/>
       <c r="C28" s="31"/>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
       <c r="F28" s="30"/>
       <c r="G28" s="30"/>
-      <c r="H28" s="113"/>
+      <c r="H28" s="130"/>
     </row>
     <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="30" t="s">
@@ -16140,7 +16140,7 @@
       <c r="G29" s="30" t="s">
         <v>394</v>
       </c>
-      <c r="H29" s="113"/>
+      <c r="H29" s="130"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
@@ -16164,7 +16164,7 @@
       <c r="G30" s="30" t="s">
         <v>394</v>
       </c>
-      <c r="H30" s="113"/>
+      <c r="H30" s="130"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="30" t="s">
@@ -16188,7 +16188,7 @@
       <c r="G31" s="30" t="s">
         <v>394</v>
       </c>
-      <c r="H31" s="113"/>
+      <c r="H31" s="130"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
@@ -16200,10 +16200,10 @@
       <c r="G32" s="17"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="104" t="s">
+      <c r="A33" s="118" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="104"/>
+      <c r="B33" s="118"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="13"/>
